--- a/Crawl_with_Class.xlsx
+++ b/Crawl_with_Class.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="458">
   <si>
     <t>AD = Andorra</t>
   </si>
@@ -608,6 +608,9 @@
     <t>HT = Haiti</t>
   </si>
   <si>
+    <t>HTTP</t>
+  </si>
+  <si>
     <t>HU = Hungary</t>
   </si>
   <si>
@@ -963,6 +966,9 @@
   </si>
   <si>
     <t>Nigerian  Academy of Sciences</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>Norwegian Academy of Sciences and  Letters</t>
@@ -1738,100 +1744,124 @@
   <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <sheetData>
     <row spans="1:9" r="1">
-      <c r="A1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c t="s" s="1" r="A1">
+        <v>415</v>
+      </c>
+      <c t="s" s="1" r="B1">
+        <v>253</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>421</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>321</v>
+      </c>
+      <c t="s" s="1" r="E1">
         <v>137</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c t="s" s="1" r="F1">
+        <v>345</v>
+      </c>
+      <c t="s" s="1" r="G1">
         <v>126</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c t="s" s="1" r="H1">
+        <v>403</v>
+      </c>
+      <c t="s" s="1" r="I1">
         <v>127</v>
       </c>
     </row>
     <row spans="1:9" r="2">
-      <c r="A2" t="s">
+      <c t="s" r="A2">
         <v>99</v>
       </c>
-      <c r="C2" t="s">
-        <v>449</v>
+      <c t="s" r="C2">
+        <v>451</v>
+      </c>
+      <c t="s" r="G2">
+        <v>316</v>
       </c>
     </row>
     <row spans="1:9" r="3">
-      <c r="A3" t="s">
+      <c t="s" r="A3">
         <v>100</v>
       </c>
-      <c r="C3" t="s">
-        <v>450</v>
+      <c t="s" r="C3">
+        <v>452</v>
+      </c>
+      <c t="s" r="G3">
+        <v>196</v>
       </c>
     </row>
     <row spans="1:9" r="4">
-      <c r="A4" t="s">
+      <c t="s" r="A4">
         <v>101</v>
       </c>
-      <c r="C4" t="s">
-        <v>451</v>
+      <c t="s" r="C4">
+        <v>453</v>
+      </c>
+      <c t="s" r="G4">
+        <v>196</v>
       </c>
     </row>
     <row spans="1:9" r="5">
-      <c r="A5" t="s">
+      <c t="s" r="A5">
         <v>190</v>
       </c>
-      <c r="C5" t="s">
-        <v>452</v>
+      <c t="s" r="C5">
+        <v>454</v>
+      </c>
+      <c t="s" r="G5">
+        <v>196</v>
       </c>
     </row>
     <row spans="1:9" r="6">
-      <c r="A6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C6" t="s">
-        <v>453</v>
+      <c t="s" r="A6">
+        <v>380</v>
+      </c>
+      <c t="s" r="C6">
+        <v>455</v>
+      </c>
+      <c t="s" r="G6">
+        <v>196</v>
       </c>
     </row>
     <row spans="1:9" r="7">
-      <c r="A7" t="s">
+      <c t="s" r="A7">
         <v>163</v>
       </c>
-      <c r="C7" t="s">
-        <v>454</v>
+      <c t="s" r="C7">
+        <v>456</v>
+      </c>
+      <c t="s" r="G7">
+        <v>196</v>
       </c>
     </row>
     <row spans="1:9" r="8">
-      <c r="A8" t="s">
+      <c t="s" r="A8">
         <v>163</v>
       </c>
-      <c r="C8" t="s">
-        <v>454</v>
+      <c t="s" r="C8">
+        <v>456</v>
+      </c>
+      <c t="s" r="G8">
+        <v>196</v>
       </c>
     </row>
     <row spans="1:9" r="9">
-      <c r="A9" t="s">
+      <c t="s" r="A9">
         <v>163</v>
       </c>
-      <c r="C9" t="s">
-        <v>454</v>
+      <c t="s" r="C9">
+        <v>456</v>
+      </c>
+      <c t="s" r="G9">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" footer="0.5" right="0.75" header="0.5" left="0.75" bottom="1"/>
+  <pageMargins bottom="1" right="0.75" left="0.75" top="1" footer="0.5" header="0.5"/>
 </worksheet>
 </file>
 
@@ -1849,36 +1879,36 @@
   <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <sheetData>
     <row spans="1:9" r="1">
-      <c r="A1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c t="s" s="1" r="A1">
+        <v>415</v>
+      </c>
+      <c t="s" s="1" r="B1">
+        <v>253</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>421</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>321</v>
+      </c>
+      <c t="s" s="1" r="E1">
         <v>137</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c t="s" s="1" r="F1">
+        <v>345</v>
+      </c>
+      <c t="s" s="1" r="G1">
         <v>126</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c t="s" s="1" r="H1">
+        <v>403</v>
+      </c>
+      <c t="s" s="1" r="I1">
         <v>127</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" footer="0.5" right="0.75" header="0.5" left="0.75" bottom="1"/>
+  <pageMargins bottom="1" right="0.75" left="0.75" top="1" footer="0.5" header="0.5"/>
 </worksheet>
 </file>
 
@@ -1896,917 +1926,917 @@
   <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <sheetData>
     <row spans="1:1" r="2">
-      <c r="A2" t="s">
+      <c t="s" r="A2">
         <v>17</v>
       </c>
     </row>
     <row spans="1:1" r="3">
-      <c r="A3" t="s">
+      <c t="s" r="A3">
         <v>21</v>
       </c>
     </row>
     <row spans="1:1" r="4">
-      <c r="A4" t="s">
+      <c t="s" r="A4">
         <v>23</v>
       </c>
     </row>
     <row spans="1:1" r="5">
-      <c r="A5" t="s">
+      <c t="s" r="A5">
         <v>22</v>
       </c>
     </row>
     <row spans="1:1" r="6">
-      <c r="A6" t="s">
+      <c t="s" r="A6">
         <v>18</v>
       </c>
     </row>
     <row spans="1:1" r="7">
-      <c r="A7" t="s">
+      <c t="s" r="A7">
         <v>19</v>
       </c>
     </row>
     <row spans="1:1" r="8">
-      <c r="A8" t="s">
+      <c t="s" r="A8">
         <v>20</v>
       </c>
     </row>
     <row spans="1:1" r="9">
-      <c r="A9" t="s">
+      <c t="s" r="A9">
         <v>34</v>
       </c>
     </row>
     <row spans="1:1" r="10">
-      <c r="A10" t="s">
+      <c t="s" r="A10">
         <v>35</v>
       </c>
     </row>
     <row spans="1:1" r="11">
-      <c r="A11" t="s">
+      <c t="s" r="A11">
         <v>24</v>
       </c>
     </row>
     <row spans="1:1" r="12">
-      <c r="A12" t="s">
+      <c t="s" r="A12">
         <v>31</v>
       </c>
     </row>
     <row spans="1:1" r="13">
-      <c r="A13" t="s">
+      <c t="s" r="A13">
         <v>25</v>
       </c>
     </row>
     <row spans="1:1" r="14">
-      <c r="A14" t="s">
+      <c t="s" r="A14">
         <v>26</v>
       </c>
     </row>
     <row spans="1:1" r="15">
-      <c r="A15" t="s">
+      <c t="s" r="A15">
         <v>33</v>
       </c>
     </row>
     <row spans="1:1" r="16">
-      <c r="A16" t="s">
+      <c t="s" r="A16">
         <v>32</v>
       </c>
     </row>
     <row spans="1:1" r="17">
-      <c r="A17" t="s">
+      <c t="s" r="A17">
         <v>27</v>
       </c>
     </row>
     <row spans="1:1" r="18">
-      <c r="A18" t="s">
+      <c t="s" r="A18">
         <v>28</v>
       </c>
     </row>
     <row spans="1:1" r="19">
-      <c r="A19" t="s">
+      <c t="s" r="A19">
         <v>29</v>
       </c>
     </row>
     <row spans="1:1" r="20">
-      <c r="A20" t="s">
+      <c t="s" r="A20">
         <v>30</v>
       </c>
     </row>
     <row spans="1:1" r="21">
-      <c r="A21" t="s">
+      <c t="s" r="A21">
         <v>36</v>
       </c>
     </row>
     <row spans="1:1" r="22">
-      <c r="A22" t="s">
+      <c t="s" r="A22">
         <v>37</v>
       </c>
     </row>
     <row spans="1:1" r="23">
-      <c r="A23" t="s">
+      <c t="s" r="A23">
         <v>38</v>
       </c>
     </row>
     <row spans="1:1" r="24">
-      <c r="A24" t="s">
+      <c t="s" r="A24">
         <v>39</v>
       </c>
     </row>
     <row spans="1:1" r="25">
-      <c r="A25" t="s">
+      <c t="s" r="A25">
         <v>40</v>
       </c>
     </row>
     <row spans="1:1" r="26">
-      <c r="A26" t="s">
+      <c t="s" r="A26">
         <v>41</v>
       </c>
     </row>
     <row spans="1:1" r="27">
-      <c r="A27" t="s">
+      <c t="s" r="A27">
         <v>42</v>
       </c>
     </row>
     <row spans="1:1" r="28">
-      <c r="A28" t="s">
+      <c t="s" r="A28">
         <v>53</v>
       </c>
     </row>
     <row spans="1:1" r="29">
-      <c r="A29" t="s">
+      <c t="s" r="A29">
         <v>43</v>
       </c>
     </row>
     <row spans="1:1" r="30">
-      <c r="A30" t="s">
+      <c t="s" r="A30">
         <v>44</v>
       </c>
     </row>
     <row spans="1:1" r="31">
-      <c r="A31" t="s">
+      <c t="s" r="A31">
         <v>54</v>
       </c>
     </row>
     <row spans="1:1" r="32">
-      <c r="A32" t="s">
+      <c t="s" r="A32">
         <v>45</v>
       </c>
     </row>
     <row spans="1:1" r="33">
-      <c r="A33" t="s">
+      <c t="s" r="A33">
         <v>46</v>
       </c>
     </row>
     <row spans="1:1" r="34">
-      <c r="A34" t="s">
+      <c t="s" r="A34">
         <v>55</v>
       </c>
     </row>
     <row spans="1:1" r="35">
-      <c r="A35" t="s">
+      <c t="s" r="A35">
         <v>56</v>
       </c>
     </row>
     <row spans="1:1" r="36">
-      <c r="A36" t="s">
+      <c t="s" r="A36">
         <v>47</v>
       </c>
     </row>
     <row spans="1:1" r="37">
-      <c r="A37" t="s">
+      <c t="s" r="A37">
         <v>57</v>
       </c>
     </row>
     <row spans="1:1" r="38">
-      <c r="A38" t="s">
+      <c t="s" r="A38">
         <v>58</v>
       </c>
     </row>
     <row spans="1:1" r="39">
-      <c r="A39" t="s">
+      <c t="s" r="A39">
         <v>48</v>
       </c>
     </row>
     <row spans="1:1" r="40">
-      <c r="A40" t="s">
+      <c t="s" r="A40">
         <v>59</v>
       </c>
     </row>
     <row spans="1:1" r="41">
-      <c r="A41" t="s">
+      <c t="s" r="A41">
         <v>49</v>
       </c>
     </row>
     <row spans="1:1" r="42">
-      <c r="A42" t="s">
+      <c t="s" r="A42">
         <v>50</v>
       </c>
     </row>
     <row spans="1:1" r="43">
-      <c r="A43" t="s">
+      <c t="s" r="A43">
         <v>51</v>
       </c>
     </row>
     <row spans="1:1" r="44">
-      <c r="A44" t="s">
+      <c t="s" r="A44">
         <v>52</v>
       </c>
     </row>
     <row spans="1:1" r="45">
-      <c r="A45" t="s">
+      <c t="s" r="A45">
         <v>60</v>
       </c>
     </row>
     <row spans="1:1" r="46">
-      <c r="A46" t="s">
+      <c t="s" r="A46">
         <v>61</v>
       </c>
     </row>
     <row spans="1:1" r="47">
-      <c r="A47" t="s">
+      <c t="s" r="A47">
         <v>62</v>
       </c>
     </row>
     <row spans="1:1" r="48">
-      <c r="A48" t="s">
+      <c t="s" r="A48">
         <v>67</v>
       </c>
     </row>
     <row spans="1:1" r="49">
-      <c r="A49" t="s">
+      <c t="s" r="A49">
         <v>63</v>
       </c>
     </row>
     <row spans="1:1" r="50">
-      <c r="A50" t="s">
+      <c t="s" r="A50">
         <v>64</v>
       </c>
     </row>
     <row spans="1:1" r="51">
-      <c r="A51" t="s">
+      <c t="s" r="A51">
         <v>65</v>
       </c>
     </row>
     <row spans="1:1" r="52">
-      <c r="A52" t="s">
+      <c t="s" r="A52">
         <v>66</v>
       </c>
     </row>
     <row spans="1:1" r="53">
-      <c r="A53" t="s">
+      <c t="s" r="A53">
         <v>68</v>
       </c>
     </row>
     <row spans="1:1" r="54">
-      <c r="A54" t="s">
+      <c t="s" r="A54">
         <v>88</v>
       </c>
     </row>
     <row spans="1:1" r="55">
-      <c r="A55" t="s">
+      <c t="s" r="A55">
         <v>89</v>
       </c>
     </row>
     <row spans="1:1" r="56">
-      <c r="A56" t="s">
+      <c t="s" r="A56">
         <v>90</v>
       </c>
     </row>
     <row spans="1:1" r="57">
-      <c r="A57" t="s">
+      <c t="s" r="A57">
         <v>91</v>
       </c>
     </row>
     <row spans="1:1" r="58">
-      <c r="A58" t="s">
+      <c t="s" r="A58">
         <v>92</v>
       </c>
     </row>
     <row spans="1:1" r="59">
-      <c r="A59" t="s">
+      <c t="s" r="A59">
         <v>115</v>
       </c>
     </row>
     <row spans="1:1" r="60">
-      <c r="A60" t="s">
+      <c t="s" r="A60">
         <v>116</v>
       </c>
     </row>
     <row spans="1:1" r="61">
-      <c r="A61" t="s">
+      <c t="s" r="A61">
         <v>120</v>
       </c>
     </row>
     <row spans="1:1" r="62">
-      <c r="A62" t="s">
+      <c t="s" r="A62">
         <v>117</v>
       </c>
     </row>
     <row spans="1:1" r="63">
-      <c r="A63" t="s">
+      <c t="s" r="A63">
         <v>121</v>
       </c>
     </row>
     <row spans="1:1" r="64">
-      <c r="A64" t="s">
+      <c t="s" r="A64">
         <v>118</v>
       </c>
     </row>
     <row spans="1:1" r="65">
-      <c r="A65" t="s">
+      <c t="s" r="A65">
         <v>119</v>
       </c>
     </row>
     <row spans="1:1" r="66">
-      <c r="A66" t="s">
+      <c t="s" r="A66">
         <v>122</v>
       </c>
     </row>
     <row spans="1:1" r="67">
-      <c r="A67" t="s">
+      <c t="s" r="A67">
         <v>123</v>
       </c>
     </row>
     <row spans="1:1" r="68">
-      <c r="A68" t="s">
+      <c t="s" r="A68">
         <v>124</v>
       </c>
     </row>
     <row spans="1:1" r="69">
-      <c r="A69" t="s">
+      <c t="s" r="A69">
         <v>125</v>
       </c>
     </row>
     <row spans="1:1" r="70">
-      <c r="A70" t="s">
+      <c t="s" r="A70">
         <v>128</v>
       </c>
     </row>
     <row spans="1:1" r="71">
-      <c r="A71" t="s">
+      <c t="s" r="A71">
         <v>129</v>
       </c>
     </row>
     <row spans="1:1" r="72">
-      <c r="A72" t="s">
+      <c t="s" r="A72">
         <v>136</v>
       </c>
     </row>
     <row spans="1:1" r="73">
-      <c r="A73" t="s">
+      <c t="s" r="A73">
         <v>148</v>
       </c>
     </row>
     <row spans="1:1" r="74">
-      <c r="A74" t="s">
+      <c t="s" r="A74">
         <v>147</v>
       </c>
     </row>
     <row spans="1:1" r="75">
-      <c r="A75" t="s">
+      <c t="s" r="A75">
         <v>149</v>
       </c>
     </row>
     <row spans="1:1" r="76">
-      <c r="A76" t="s">
+      <c t="s" r="A76">
         <v>153</v>
       </c>
     </row>
     <row spans="1:1" r="77">
-      <c r="A77" t="s">
+      <c t="s" r="A77">
         <v>154</v>
       </c>
     </row>
     <row spans="1:1" r="78">
-      <c r="A78" t="s">
+      <c t="s" r="A78">
         <v>150</v>
       </c>
     </row>
     <row spans="1:1" r="79">
-      <c r="A79" t="s">
+      <c t="s" r="A79">
         <v>151</v>
       </c>
     </row>
     <row spans="1:1" r="80">
-      <c r="A80" t="s">
+      <c t="s" r="A80">
         <v>152</v>
       </c>
     </row>
     <row spans="1:1" r="81">
-      <c r="A81" t="s">
+      <c t="s" r="A81">
         <v>162</v>
       </c>
     </row>
     <row spans="1:1" r="82">
-      <c r="A82" t="s">
+      <c t="s" r="A82">
         <v>164</v>
       </c>
     </row>
     <row spans="1:1" r="83">
-      <c r="A83" t="s">
+      <c t="s" r="A83">
         <v>184</v>
       </c>
     </row>
     <row spans="1:1" r="84">
-      <c r="A84" t="s">
+      <c t="s" r="A84">
         <v>185</v>
       </c>
     </row>
     <row spans="1:1" r="85">
-      <c r="A85" t="s">
+      <c t="s" r="A85">
         <v>186</v>
       </c>
     </row>
     <row spans="1:1" r="86">
-      <c r="A86" t="s">
+      <c t="s" r="A86">
         <v>187</v>
       </c>
     </row>
     <row spans="1:1" r="87">
-      <c r="A87" t="s">
+      <c t="s" r="A87">
         <v>188</v>
       </c>
     </row>
     <row spans="1:1" r="88">
-      <c r="A88" t="s">
+      <c t="s" r="A88">
         <v>189</v>
       </c>
     </row>
     <row spans="1:1" r="89">
-      <c r="A89" t="s">
-        <v>207</v>
+      <c t="s" r="A89">
+        <v>208</v>
       </c>
     </row>
     <row spans="1:1" r="90">
-      <c r="A90" t="s">
-        <v>208</v>
+      <c t="s" r="A90">
+        <v>209</v>
       </c>
     </row>
     <row spans="1:1" r="91">
-      <c r="A91" t="s">
-        <v>209</v>
+      <c t="s" r="A91">
+        <v>210</v>
       </c>
     </row>
     <row spans="1:1" r="92">
-      <c r="A92" t="s">
-        <v>210</v>
+      <c t="s" r="A92">
+        <v>211</v>
       </c>
     </row>
     <row spans="1:1" r="93">
-      <c r="A93" t="s">
-        <v>211</v>
+      <c t="s" r="A93">
+        <v>212</v>
       </c>
     </row>
     <row spans="1:1" r="94">
-      <c r="A94" t="s">
-        <v>212</v>
+      <c t="s" r="A94">
+        <v>213</v>
       </c>
     </row>
     <row spans="1:1" r="95">
-      <c r="A95" t="s">
+      <c t="s" r="A95">
+        <v>215</v>
+      </c>
+    </row>
+    <row spans="1:1" r="96">
+      <c t="s" r="A96">
+        <v>216</v>
+      </c>
+    </row>
+    <row spans="1:1" r="97">
+      <c t="s" r="A97">
+        <v>217</v>
+      </c>
+    </row>
+    <row spans="1:1" r="98">
+      <c t="s" r="A98">
+        <v>218</v>
+      </c>
+    </row>
+    <row spans="1:1" r="99">
+      <c t="s" r="A99">
+        <v>219</v>
+      </c>
+    </row>
+    <row spans="1:1" r="100">
+      <c t="s" r="A100">
         <v>214</v>
       </c>
     </row>
-    <row spans="1:1" r="96">
-      <c r="A96" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row spans="1:1" r="97">
-      <c r="A97" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row spans="1:1" r="98">
-      <c r="A98" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row spans="1:1" r="99">
-      <c r="A99" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row spans="1:1" r="100">
-      <c r="A100" t="s">
-        <v>213</v>
-      </c>
-    </row>
     <row spans="1:1" r="101">
-      <c r="A101" t="s">
-        <v>219</v>
+      <c t="s" r="A101">
+        <v>220</v>
       </c>
     </row>
     <row spans="1:1" r="102">
-      <c r="A102" t="s">
-        <v>220</v>
+      <c t="s" r="A102">
+        <v>221</v>
       </c>
     </row>
     <row spans="1:1" r="103">
-      <c r="A103" t="s">
-        <v>221</v>
+      <c t="s" r="A103">
+        <v>222</v>
       </c>
     </row>
     <row spans="1:1" r="104">
-      <c r="A104" t="s">
-        <v>222</v>
+      <c t="s" r="A104">
+        <v>223</v>
       </c>
     </row>
     <row spans="1:1" r="105">
-      <c r="A105" t="s">
-        <v>223</v>
+      <c t="s" r="A105">
+        <v>224</v>
       </c>
     </row>
     <row spans="1:1" r="106">
-      <c r="A106" t="s">
-        <v>238</v>
+      <c t="s" r="A106">
+        <v>239</v>
       </c>
     </row>
     <row spans="1:1" r="107">
-      <c r="A107" t="s">
-        <v>239</v>
+      <c t="s" r="A107">
+        <v>240</v>
       </c>
     </row>
     <row spans="1:1" r="108">
-      <c r="A108" t="s">
-        <v>240</v>
+      <c t="s" r="A108">
+        <v>241</v>
       </c>
     </row>
     <row spans="1:1" r="109">
-      <c r="A109" t="s">
-        <v>455</v>
+      <c t="s" r="A109">
+        <v>457</v>
       </c>
     </row>
     <row spans="1:1" r="110">
-      <c r="A110" t="s">
-        <v>253</v>
+      <c t="s" r="A110">
+        <v>254</v>
       </c>
     </row>
     <row spans="1:1" r="111">
-      <c r="A111" t="s">
-        <v>254</v>
+      <c t="s" r="A111">
+        <v>255</v>
       </c>
     </row>
     <row spans="1:1" r="112">
-      <c r="A112" t="s">
-        <v>255</v>
+      <c t="s" r="A112">
+        <v>256</v>
       </c>
     </row>
     <row spans="1:1" r="113">
-      <c r="A113" t="s">
-        <v>278</v>
+      <c t="s" r="A113">
+        <v>279</v>
       </c>
     </row>
     <row spans="1:1" r="114">
-      <c r="A114" t="s">
+      <c t="s" r="A114">
+        <v>299</v>
+      </c>
+    </row>
+    <row spans="1:1" r="115">
+      <c t="s" r="A115">
+        <v>301</v>
+      </c>
+    </row>
+    <row spans="1:1" r="116">
+      <c t="s" r="A116">
+        <v>300</v>
+      </c>
+    </row>
+    <row spans="1:1" r="117">
+      <c t="s" r="A117">
+        <v>302</v>
+      </c>
+    </row>
+    <row spans="1:1" r="118">
+      <c t="s" r="A118">
+        <v>303</v>
+      </c>
+    </row>
+    <row spans="1:1" r="119">
+      <c t="s" r="A119">
+        <v>304</v>
+      </c>
+    </row>
+    <row spans="1:1" r="120">
+      <c t="s" r="A120">
+        <v>306</v>
+      </c>
+    </row>
+    <row spans="1:1" r="121">
+      <c t="s" r="A121">
+        <v>305</v>
+      </c>
+    </row>
+    <row spans="1:1" r="122">
+      <c t="s" r="A122">
+        <v>295</v>
+      </c>
+    </row>
+    <row spans="1:1" r="123">
+      <c t="s" r="A123">
+        <v>296</v>
+      </c>
+    </row>
+    <row spans="1:1" r="124">
+      <c t="s" r="A124">
+        <v>307</v>
+      </c>
+    </row>
+    <row spans="1:1" r="125">
+      <c t="s" r="A125">
+        <v>308</v>
+      </c>
+    </row>
+    <row spans="1:1" r="126">
+      <c t="s" r="A126">
+        <v>297</v>
+      </c>
+    </row>
+    <row spans="1:1" r="127">
+      <c t="s" r="A127">
         <v>298</v>
       </c>
     </row>
-    <row spans="1:1" r="115">
-      <c r="A115" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row spans="1:1" r="116">
-      <c r="A116" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row spans="1:1" r="117">
-      <c r="A117" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row spans="1:1" r="118">
-      <c r="A118" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row spans="1:1" r="119">
-      <c r="A119" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row spans="1:1" r="120">
-      <c r="A120" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row spans="1:1" r="121">
-      <c r="A121" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row spans="1:1" r="122">
-      <c r="A122" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row spans="1:1" r="123">
-      <c r="A123" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row spans="1:1" r="124">
-      <c r="A124" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row spans="1:1" r="125">
-      <c r="A125" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row spans="1:1" r="126">
-      <c r="A126" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row spans="1:1" r="127">
-      <c r="A127" t="s">
-        <v>297</v>
-      </c>
-    </row>
     <row spans="1:1" r="128">
-      <c r="A128" t="s">
+      <c t="s" r="A128">
+        <v>310</v>
+      </c>
+    </row>
+    <row spans="1:1" r="129">
+      <c t="s" r="A129">
+        <v>311</v>
+      </c>
+    </row>
+    <row spans="1:1" r="130">
+      <c t="s" r="A130">
         <v>309</v>
       </c>
     </row>
-    <row spans="1:1" r="129">
-      <c r="A129" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row spans="1:1" r="130">
-      <c r="A130" t="s">
-        <v>308</v>
-      </c>
-    </row>
     <row spans="1:1" r="131">
-      <c r="A131" t="s">
-        <v>311</v>
+      <c t="s" r="A131">
+        <v>312</v>
       </c>
     </row>
     <row spans="1:1" r="132">
-      <c r="A132" t="s">
-        <v>312</v>
+      <c t="s" r="A132">
+        <v>313</v>
       </c>
     </row>
     <row spans="1:1" r="133">
-      <c r="A133" t="s">
-        <v>313</v>
+      <c t="s" r="A133">
+        <v>314</v>
       </c>
     </row>
     <row spans="1:1" r="134">
-      <c r="A134" t="s">
-        <v>314</v>
+      <c t="s" r="A134">
+        <v>315</v>
       </c>
     </row>
     <row spans="1:1" r="135">
-      <c r="A135" t="s">
-        <v>315</v>
+      <c t="s" r="A135">
+        <v>317</v>
       </c>
     </row>
     <row spans="1:1" r="136">
-      <c r="A136" t="s">
-        <v>318</v>
+      <c t="s" r="A136">
+        <v>320</v>
       </c>
     </row>
     <row spans="1:1" r="137">
-      <c r="A137" t="s">
-        <v>320</v>
+      <c t="s" r="A137">
+        <v>322</v>
       </c>
     </row>
     <row spans="1:1" r="138">
-      <c r="A138" t="s">
-        <v>334</v>
+      <c t="s" r="A138">
+        <v>336</v>
       </c>
     </row>
     <row spans="1:1" r="139">
-      <c r="A139" t="s">
-        <v>335</v>
+      <c t="s" r="A139">
+        <v>337</v>
       </c>
     </row>
     <row spans="1:1" r="140">
-      <c r="A140" t="s">
-        <v>336</v>
+      <c t="s" r="A140">
+        <v>338</v>
       </c>
     </row>
     <row spans="1:1" r="141">
-      <c r="A141" t="s">
-        <v>337</v>
+      <c t="s" r="A141">
+        <v>339</v>
       </c>
     </row>
     <row spans="1:1" r="142">
-      <c r="A142" t="s">
-        <v>344</v>
+      <c t="s" r="A142">
+        <v>346</v>
       </c>
     </row>
     <row spans="1:1" r="143">
-      <c r="A143" t="s">
+      <c t="s" r="A143">
+        <v>350</v>
+      </c>
+    </row>
+    <row spans="1:1" r="144">
+      <c t="s" r="A144">
+        <v>351</v>
+      </c>
+    </row>
+    <row spans="1:1" r="145">
+      <c t="s" r="A145">
+        <v>352</v>
+      </c>
+    </row>
+    <row spans="1:1" r="146">
+      <c t="s" r="A146">
+        <v>347</v>
+      </c>
+    </row>
+    <row spans="1:1" r="147">
+      <c t="s" r="A147">
         <v>348</v>
       </c>
     </row>
-    <row spans="1:1" r="144">
-      <c r="A144" t="s">
+    <row spans="1:1" r="148">
+      <c t="s" r="A148">
+        <v>353</v>
+      </c>
+    </row>
+    <row spans="1:1" r="149">
+      <c t="s" r="A149">
         <v>349</v>
       </c>
     </row>
-    <row spans="1:1" r="145">
-      <c r="A145" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row spans="1:1" r="146">
-      <c r="A146" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row spans="1:1" r="147">
-      <c r="A147" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row spans="1:1" r="148">
-      <c r="A148" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row spans="1:1" r="149">
-      <c r="A149" t="s">
-        <v>347</v>
-      </c>
-    </row>
     <row spans="1:1" r="150">
-      <c r="A150" t="s">
-        <v>352</v>
+      <c t="s" r="A150">
+        <v>354</v>
       </c>
     </row>
     <row spans="1:1" r="151">
-      <c r="A151" t="s">
-        <v>353</v>
+      <c t="s" r="A151">
+        <v>355</v>
       </c>
     </row>
     <row spans="1:1" r="152">
-      <c r="A152" t="s">
-        <v>354</v>
+      <c t="s" r="A152">
+        <v>356</v>
       </c>
     </row>
     <row spans="1:1" r="153">
-      <c r="A153" t="s">
-        <v>355</v>
+      <c t="s" r="A153">
+        <v>357</v>
       </c>
     </row>
     <row spans="1:1" r="154">
-      <c r="A154" t="s">
-        <v>356</v>
+      <c t="s" r="A154">
+        <v>358</v>
       </c>
     </row>
     <row spans="1:1" r="155">
-      <c r="A155" t="s">
-        <v>357</v>
+      <c t="s" r="A155">
+        <v>359</v>
       </c>
     </row>
     <row spans="1:1" r="156">
-      <c r="A156" t="s">
-        <v>358</v>
+      <c t="s" r="A156">
+        <v>360</v>
       </c>
     </row>
     <row spans="1:1" r="157">
-      <c r="A157" t="s">
-        <v>381</v>
+      <c t="s" r="A157">
+        <v>383</v>
       </c>
     </row>
     <row spans="1:1" r="158">
-      <c r="A158" t="s">
-        <v>380</v>
+      <c t="s" r="A158">
+        <v>382</v>
       </c>
     </row>
     <row spans="1:1" r="159">
-      <c r="A159" t="s">
-        <v>383</v>
+      <c t="s" r="A159">
+        <v>385</v>
       </c>
     </row>
     <row spans="1:1" r="160">
-      <c r="A160" t="s">
-        <v>382</v>
+      <c t="s" r="A160">
+        <v>384</v>
       </c>
     </row>
     <row spans="1:1" r="161">
-      <c r="A161" t="s">
-        <v>384</v>
+      <c t="s" r="A161">
+        <v>386</v>
       </c>
     </row>
     <row spans="1:1" r="162">
-      <c r="A162" t="s">
-        <v>385</v>
+      <c t="s" r="A162">
+        <v>387</v>
       </c>
     </row>
     <row spans="1:1" r="163">
-      <c r="A163" t="s">
-        <v>386</v>
+      <c t="s" r="A163">
+        <v>388</v>
       </c>
     </row>
     <row spans="1:1" r="164">
-      <c r="A164" t="s">
-        <v>387</v>
+      <c t="s" r="A164">
+        <v>389</v>
       </c>
     </row>
     <row spans="1:1" r="165">
-      <c r="A165" t="s">
+      <c t="s" r="A165">
+        <v>392</v>
+      </c>
+    </row>
+    <row spans="1:1" r="166">
+      <c t="s" r="A166">
+        <v>393</v>
+      </c>
+    </row>
+    <row spans="1:1" r="167">
+      <c t="s" r="A167">
         <v>390</v>
       </c>
     </row>
-    <row spans="1:1" r="166">
-      <c r="A166" t="s">
+    <row spans="1:1" r="168">
+      <c t="s" r="A168">
         <v>391</v>
       </c>
     </row>
-    <row spans="1:1" r="167">
-      <c r="A167" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row spans="1:1" r="168">
-      <c r="A168" t="s">
-        <v>389</v>
-      </c>
-    </row>
     <row spans="1:1" r="169">
-      <c r="A169" t="s">
-        <v>392</v>
+      <c t="s" r="A169">
+        <v>394</v>
       </c>
     </row>
     <row spans="1:1" r="170">
-      <c r="A170" t="s">
-        <v>393</v>
+      <c t="s" r="A170">
+        <v>395</v>
       </c>
     </row>
     <row spans="1:1" r="171">
-      <c r="A171" t="s">
-        <v>411</v>
+      <c t="s" r="A171">
+        <v>413</v>
       </c>
     </row>
     <row spans="1:1" r="172">
-      <c r="A172" t="s">
-        <v>412</v>
+      <c t="s" r="A172">
+        <v>414</v>
       </c>
     </row>
     <row spans="1:1" r="173">
-      <c r="A173" t="s">
-        <v>414</v>
+      <c t="s" r="A173">
+        <v>416</v>
       </c>
     </row>
     <row spans="1:1" r="174">
-      <c r="A174" t="s">
-        <v>423</v>
+      <c t="s" r="A174">
+        <v>425</v>
       </c>
     </row>
     <row spans="1:1" r="175">
-      <c r="A175" t="s">
-        <v>424</v>
+      <c t="s" r="A175">
+        <v>426</v>
       </c>
     </row>
     <row spans="1:1" r="176">
-      <c r="A176" t="s">
-        <v>425</v>
+      <c t="s" r="A176">
+        <v>427</v>
       </c>
     </row>
     <row spans="1:1" r="177">
-      <c r="A177" t="s">
-        <v>426</v>
+      <c t="s" r="A177">
+        <v>428</v>
       </c>
     </row>
     <row spans="1:1" r="178">
-      <c r="A178" t="s">
-        <v>436</v>
+      <c t="s" r="A178">
+        <v>438</v>
       </c>
     </row>
     <row spans="1:1" r="179">
-      <c r="A179" t="s">
+      <c t="s" r="A179">
+        <v>441</v>
+      </c>
+    </row>
+    <row spans="1:1" r="180">
+      <c t="s" r="A180">
         <v>439</v>
       </c>
     </row>
-    <row spans="1:1" r="180">
-      <c r="A180" t="s">
-        <v>437</v>
-      </c>
-    </row>
     <row spans="1:1" r="181">
-      <c r="A181" t="s">
+      <c t="s" r="A181">
+        <v>442</v>
+      </c>
+    </row>
+    <row spans="1:1" r="182">
+      <c t="s" r="A182">
         <v>440</v>
       </c>
     </row>
-    <row spans="1:1" r="182">
-      <c r="A182" t="s">
-        <v>438</v>
-      </c>
-    </row>
     <row spans="1:1" r="183">
-      <c r="A183" t="s">
-        <v>448</v>
+      <c t="s" r="A183">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" footer="0.5" right="0.75" header="0.5" left="0.75" bottom="1"/>
+  <pageMargins bottom="1" right="0.75" left="0.75" top="1" footer="0.5" header="0.5"/>
 </worksheet>
 </file>
 
@@ -2824,1271 +2854,1271 @@
   <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <sheetData>
     <row spans="1:1" r="1">
-      <c r="A1" t="s">
+      <c t="s" r="A1">
         <v>0</v>
       </c>
     </row>
     <row spans="1:1" r="2">
-      <c r="A2" t="s">
+      <c t="s" r="A2">
         <v>1</v>
       </c>
     </row>
     <row spans="1:1" r="3">
-      <c r="A3" t="s">
+      <c t="s" r="A3">
         <v>2</v>
       </c>
     </row>
     <row spans="1:1" r="4">
-      <c r="A4" t="s">
+      <c t="s" r="A4">
         <v>3</v>
       </c>
     </row>
     <row spans="1:1" r="5">
-      <c r="A5" t="s">
+      <c t="s" r="A5">
         <v>4</v>
       </c>
     </row>
     <row spans="1:1" r="6">
-      <c r="A6" t="s">
+      <c t="s" r="A6">
         <v>5</v>
       </c>
     </row>
     <row spans="1:1" r="7">
-      <c r="A7" t="s">
+      <c t="s" r="A7">
         <v>6</v>
       </c>
     </row>
     <row spans="1:1" r="8">
-      <c r="A8" t="s">
+      <c t="s" r="A8">
         <v>7</v>
       </c>
     </row>
     <row spans="1:1" r="9">
-      <c r="A9" t="s">
+      <c t="s" r="A9">
         <v>8</v>
       </c>
     </row>
     <row spans="1:1" r="10">
-      <c r="A10" t="s">
+      <c t="s" r="A10">
         <v>9</v>
       </c>
     </row>
     <row spans="1:1" r="11">
-      <c r="A11" t="s">
+      <c t="s" r="A11">
         <v>10</v>
       </c>
     </row>
     <row spans="1:1" r="12">
-      <c r="A12" t="s">
+      <c t="s" r="A12">
         <v>12</v>
       </c>
     </row>
     <row spans="1:1" r="13">
-      <c r="A13" t="s">
+      <c t="s" r="A13">
         <v>13</v>
       </c>
     </row>
     <row spans="1:1" r="14">
-      <c r="A14" t="s">
+      <c t="s" r="A14">
         <v>14</v>
       </c>
     </row>
     <row spans="1:1" r="15">
-      <c r="A15" t="s">
+      <c t="s" r="A15">
         <v>15</v>
       </c>
     </row>
     <row spans="1:1" r="16">
-      <c r="A16" t="s">
+      <c t="s" r="A16">
         <v>16</v>
       </c>
     </row>
     <row spans="1:1" r="17">
-      <c r="A17" t="s">
+      <c t="s" r="A17">
         <v>69</v>
       </c>
     </row>
     <row spans="1:1" r="18">
-      <c r="A18" t="s">
+      <c t="s" r="A18">
         <v>70</v>
       </c>
     </row>
     <row spans="1:1" r="19">
-      <c r="A19" t="s">
+      <c t="s" r="A19">
         <v>71</v>
       </c>
     </row>
     <row spans="1:1" r="20">
-      <c r="A20" t="s">
+      <c t="s" r="A20">
         <v>72</v>
       </c>
     </row>
     <row spans="1:1" r="21">
-      <c r="A21" t="s">
+      <c t="s" r="A21">
         <v>73</v>
       </c>
     </row>
     <row spans="1:1" r="22">
-      <c r="A22" t="s">
+      <c t="s" r="A22">
         <v>74</v>
       </c>
     </row>
     <row spans="1:1" r="23">
-      <c r="A23" t="s">
+      <c t="s" r="A23">
         <v>75</v>
       </c>
     </row>
     <row spans="1:1" r="24">
-      <c r="A24" t="s">
+      <c t="s" r="A24">
         <v>76</v>
       </c>
     </row>
     <row spans="1:1" r="25">
-      <c r="A25" t="s">
+      <c t="s" r="A25">
         <v>77</v>
       </c>
     </row>
     <row spans="1:1" r="26">
-      <c r="A26" t="s">
+      <c t="s" r="A26">
         <v>78</v>
       </c>
     </row>
     <row spans="1:1" r="27">
-      <c r="A27" t="s">
+      <c t="s" r="A27">
         <v>79</v>
       </c>
     </row>
     <row spans="1:1" r="28">
-      <c r="A28" t="s">
+      <c t="s" r="A28">
         <v>80</v>
       </c>
     </row>
     <row spans="1:1" r="29">
-      <c r="A29" t="s">
+      <c t="s" r="A29">
         <v>81</v>
       </c>
     </row>
     <row spans="1:1" r="30">
-      <c r="A30" t="s">
+      <c t="s" r="A30">
         <v>82</v>
       </c>
     </row>
     <row spans="1:1" r="31">
-      <c r="A31" t="s">
+      <c t="s" r="A31">
         <v>83</v>
       </c>
     </row>
     <row spans="1:1" r="32">
-      <c r="A32" t="s">
+      <c t="s" r="A32">
         <v>84</v>
       </c>
     </row>
     <row spans="1:1" r="33">
-      <c r="A33" t="s">
+      <c t="s" r="A33">
         <v>85</v>
       </c>
     </row>
     <row spans="1:1" r="34">
-      <c r="A34" t="s">
+      <c t="s" r="A34">
         <v>86</v>
       </c>
     </row>
     <row spans="1:1" r="35">
-      <c r="A35" t="s">
+      <c t="s" r="A35">
         <v>87</v>
       </c>
     </row>
     <row spans="1:1" r="36">
-      <c r="A36" t="s">
+      <c t="s" r="A36">
         <v>93</v>
       </c>
     </row>
     <row spans="1:1" r="37">
-      <c r="A37" t="s">
+      <c t="s" r="A37">
         <v>94</v>
       </c>
     </row>
     <row spans="1:1" r="38">
-      <c r="A38" t="s">
+      <c t="s" r="A38">
         <v>95</v>
       </c>
     </row>
     <row spans="1:1" r="39">
-      <c r="A39" t="s">
+      <c t="s" r="A39">
         <v>96</v>
       </c>
     </row>
     <row spans="1:1" r="40">
-      <c r="A40" t="s">
+      <c t="s" r="A40">
         <v>97</v>
       </c>
     </row>
     <row spans="1:1" r="41">
-      <c r="A41" t="s">
+      <c t="s" r="A41">
         <v>98</v>
       </c>
     </row>
     <row spans="1:1" r="42">
-      <c r="A42" t="s">
+      <c t="s" r="A42">
         <v>102</v>
       </c>
     </row>
     <row spans="1:1" r="43">
-      <c r="A43" t="s">
+      <c t="s" r="A43">
         <v>103</v>
       </c>
     </row>
     <row spans="1:1" r="44">
-      <c r="A44" t="s">
+      <c t="s" r="A44">
         <v>104</v>
       </c>
     </row>
     <row spans="1:1" r="45">
-      <c r="A45" t="s">
+      <c t="s" r="A45">
         <v>105</v>
       </c>
     </row>
     <row spans="1:1" r="46">
-      <c r="A46" t="s">
+      <c t="s" r="A46">
         <v>106</v>
       </c>
     </row>
     <row spans="1:1" r="47">
-      <c r="A47" t="s">
+      <c t="s" r="A47">
         <v>108</v>
       </c>
     </row>
     <row spans="1:1" r="48">
-      <c r="A48" t="s">
+      <c t="s" r="A48">
         <v>109</v>
       </c>
     </row>
     <row spans="1:1" r="49">
-      <c r="A49" t="s">
+      <c t="s" r="A49">
         <v>110</v>
       </c>
     </row>
     <row spans="1:1" r="50">
-      <c r="A50" t="s">
+      <c t="s" r="A50">
         <v>111</v>
       </c>
     </row>
     <row spans="1:1" r="51">
-      <c r="A51" t="s">
+      <c t="s" r="A51">
         <v>112</v>
       </c>
     </row>
     <row spans="1:1" r="52">
-      <c r="A52" t="s">
+      <c t="s" r="A52">
         <v>113</v>
       </c>
     </row>
     <row spans="1:1" r="53">
-      <c r="A53" t="s">
+      <c t="s" r="A53">
         <v>114</v>
       </c>
     </row>
     <row spans="1:1" r="54">
-      <c r="A54" t="s">
+      <c t="s" r="A54">
         <v>130</v>
       </c>
     </row>
     <row spans="1:1" r="55">
-      <c r="A55" t="s">
+      <c t="s" r="A55">
         <v>131</v>
       </c>
     </row>
     <row spans="1:1" r="56">
-      <c r="A56" t="s">
+      <c t="s" r="A56">
         <v>132</v>
       </c>
     </row>
     <row spans="1:1" r="57">
-      <c r="A57" t="s">
+      <c t="s" r="A57">
         <v>133</v>
       </c>
     </row>
     <row spans="1:1" r="58">
-      <c r="A58" t="s">
+      <c t="s" r="A58">
         <v>134</v>
       </c>
     </row>
     <row spans="1:1" r="59">
-      <c r="A59" t="s">
+      <c t="s" r="A59">
         <v>135</v>
       </c>
     </row>
     <row spans="1:1" r="60">
-      <c r="A60" t="s">
+      <c t="s" r="A60">
         <v>138</v>
       </c>
     </row>
     <row spans="1:1" r="61">
-      <c r="A61" t="s">
+      <c t="s" r="A61">
         <v>140</v>
       </c>
     </row>
     <row spans="1:1" r="62">
-      <c r="A62" t="s">
+      <c t="s" r="A62">
         <v>141</v>
       </c>
     </row>
     <row spans="1:1" r="63">
-      <c r="A63" t="s">
+      <c t="s" r="A63">
         <v>142</v>
       </c>
     </row>
     <row spans="1:1" r="64">
-      <c r="A64" t="s">
+      <c t="s" r="A64">
         <v>143</v>
       </c>
     </row>
     <row spans="1:1" r="65">
-      <c r="A65" t="s">
+      <c t="s" r="A65">
         <v>144</v>
       </c>
     </row>
     <row spans="1:1" r="66">
-      <c r="A66" t="s">
+      <c t="s" r="A66">
         <v>145</v>
       </c>
     </row>
     <row spans="1:1" r="67">
-      <c r="A67" t="s">
+      <c t="s" r="A67">
         <v>155</v>
       </c>
     </row>
     <row spans="1:1" r="68">
-      <c r="A68" t="s">
+      <c t="s" r="A68">
         <v>156</v>
       </c>
     </row>
     <row spans="1:1" r="69">
-      <c r="A69" t="s">
+      <c t="s" r="A69">
         <v>157</v>
       </c>
     </row>
     <row spans="1:1" r="70">
-      <c r="A70" t="s">
+      <c t="s" r="A70">
         <v>158</v>
       </c>
     </row>
     <row spans="1:1" r="71">
-      <c r="A71" t="s">
+      <c t="s" r="A71">
         <v>159</v>
       </c>
     </row>
     <row spans="1:1" r="72">
-      <c r="A72" t="s">
+      <c t="s" r="A72">
         <v>160</v>
       </c>
     </row>
     <row spans="1:1" r="73">
-      <c r="A73" t="s">
+      <c t="s" r="A73">
         <v>161</v>
       </c>
     </row>
     <row spans="1:1" r="74">
-      <c r="A74" t="s">
+      <c t="s" r="A74">
         <v>165</v>
       </c>
     </row>
     <row spans="1:1" r="75">
-      <c r="A75" t="s">
+      <c t="s" r="A75">
         <v>166</v>
       </c>
     </row>
     <row spans="1:1" r="76">
-      <c r="A76" t="s">
+      <c t="s" r="A76">
         <v>167</v>
       </c>
     </row>
     <row spans="1:1" r="77">
-      <c r="A77" t="s">
+      <c t="s" r="A77">
         <v>168</v>
       </c>
     </row>
     <row spans="1:1" r="78">
-      <c r="A78" t="s">
+      <c t="s" r="A78">
         <v>169</v>
       </c>
     </row>
     <row spans="1:1" r="79">
-      <c r="A79" t="s">
+      <c t="s" r="A79">
         <v>170</v>
       </c>
     </row>
     <row spans="1:1" r="80">
-      <c r="A80" t="s">
+      <c t="s" r="A80">
         <v>171</v>
       </c>
     </row>
     <row spans="1:1" r="81">
-      <c r="A81" t="s">
+      <c t="s" r="A81">
         <v>172</v>
       </c>
     </row>
     <row spans="1:1" r="82">
-      <c r="A82" t="s">
+      <c t="s" r="A82">
         <v>173</v>
       </c>
     </row>
     <row spans="1:1" r="83">
-      <c r="A83" t="s">
+      <c t="s" r="A83">
         <v>174</v>
       </c>
     </row>
     <row spans="1:1" r="84">
-      <c r="A84" t="s">
+      <c t="s" r="A84">
         <v>176</v>
       </c>
     </row>
     <row spans="1:1" r="85">
-      <c r="A85" t="s">
+      <c t="s" r="A85">
         <v>177</v>
       </c>
     </row>
     <row spans="1:1" r="86">
-      <c r="A86" t="s">
+      <c t="s" r="A86">
         <v>178</v>
       </c>
     </row>
     <row spans="1:1" r="87">
-      <c r="A87" t="s">
+      <c t="s" r="A87">
         <v>179</v>
       </c>
     </row>
     <row spans="1:1" r="88">
-      <c r="A88" t="s">
+      <c t="s" r="A88">
         <v>180</v>
       </c>
     </row>
     <row spans="1:1" r="89">
-      <c r="A89" t="s">
+      <c t="s" r="A89">
         <v>181</v>
       </c>
     </row>
     <row spans="1:1" r="90">
-      <c r="A90" t="s">
+      <c t="s" r="A90">
         <v>182</v>
       </c>
     </row>
     <row spans="1:1" r="91">
-      <c r="A91" t="s">
+      <c t="s" r="A91">
         <v>183</v>
       </c>
     </row>
     <row spans="1:1" r="92">
-      <c r="A92" t="s">
+      <c t="s" r="A92">
         <v>191</v>
       </c>
     </row>
     <row spans="1:1" r="93">
-      <c r="A93" t="s">
+      <c t="s" r="A93">
         <v>192</v>
       </c>
     </row>
     <row spans="1:1" r="94">
-      <c r="A94" t="s">
+      <c t="s" r="A94">
         <v>193</v>
       </c>
     </row>
     <row spans="1:1" r="95">
-      <c r="A95" t="s">
+      <c t="s" r="A95">
         <v>194</v>
       </c>
     </row>
     <row spans="1:1" r="96">
-      <c r="A96" t="s">
+      <c t="s" r="A96">
         <v>195</v>
       </c>
     </row>
     <row spans="1:1" r="97">
-      <c r="A97" t="s">
-        <v>196</v>
+      <c t="s" r="A97">
+        <v>197</v>
       </c>
     </row>
     <row spans="1:1" r="98">
-      <c r="A98" t="s">
-        <v>197</v>
+      <c t="s" r="A98">
+        <v>198</v>
       </c>
     </row>
     <row spans="1:1" r="99">
-      <c r="A99" t="s">
-        <v>198</v>
+      <c t="s" r="A99">
+        <v>199</v>
       </c>
     </row>
     <row spans="1:1" r="100">
-      <c r="A100" t="s">
-        <v>199</v>
+      <c t="s" r="A100">
+        <v>200</v>
       </c>
     </row>
     <row spans="1:1" r="101">
-      <c r="A101" t="s">
-        <v>200</v>
+      <c t="s" r="A101">
+        <v>201</v>
       </c>
     </row>
     <row spans="1:1" r="102">
-      <c r="A102" t="s">
+      <c t="s" r="A102">
+        <v>203</v>
+      </c>
+    </row>
+    <row spans="1:1" r="103">
+      <c t="s" r="A103">
+        <v>204</v>
+      </c>
+    </row>
+    <row spans="1:1" r="104">
+      <c t="s" r="A104">
+        <v>205</v>
+      </c>
+    </row>
+    <row spans="1:1" r="105">
+      <c t="s" r="A105">
+        <v>206</v>
+      </c>
+    </row>
+    <row spans="1:1" r="106">
+      <c t="s" r="A106">
+        <v>207</v>
+      </c>
+    </row>
+    <row spans="1:1" r="107">
+      <c t="s" r="A107">
+        <v>225</v>
+      </c>
+    </row>
+    <row spans="1:1" r="108">
+      <c t="s" r="A108">
+        <v>226</v>
+      </c>
+    </row>
+    <row spans="1:1" r="109">
+      <c t="s" r="A109">
+        <v>227</v>
+      </c>
+    </row>
+    <row spans="1:1" r="110">
+      <c t="s" r="A110">
+        <v>228</v>
+      </c>
+    </row>
+    <row spans="1:1" r="111">
+      <c t="s" r="A111">
+        <v>229</v>
+      </c>
+    </row>
+    <row spans="1:1" r="112">
+      <c t="s" r="A112">
+        <v>230</v>
+      </c>
+    </row>
+    <row spans="1:1" r="113">
+      <c t="s" r="A113">
+        <v>231</v>
+      </c>
+    </row>
+    <row spans="1:1" r="114">
+      <c t="s" r="A114">
+        <v>232</v>
+      </c>
+    </row>
+    <row spans="1:1" r="115">
+      <c t="s" r="A115">
+        <v>233</v>
+      </c>
+    </row>
+    <row spans="1:1" r="116">
+      <c t="s" r="A116">
+        <v>234</v>
+      </c>
+    </row>
+    <row spans="1:1" r="117">
+      <c t="s" r="A117">
+        <v>235</v>
+      </c>
+    </row>
+    <row spans="1:1" r="118">
+      <c t="s" r="A118">
+        <v>236</v>
+      </c>
+    </row>
+    <row spans="1:1" r="119">
+      <c t="s" r="A119">
+        <v>237</v>
+      </c>
+    </row>
+    <row spans="1:1" r="120">
+      <c t="s" r="A120">
+        <v>238</v>
+      </c>
+    </row>
+    <row spans="1:1" r="121">
+      <c t="s" r="A121">
+        <v>242</v>
+      </c>
+    </row>
+    <row spans="1:1" r="122">
+      <c t="s" r="A122">
+        <v>243</v>
+      </c>
+    </row>
+    <row spans="1:1" r="123">
+      <c t="s" r="A123">
+        <v>244</v>
+      </c>
+    </row>
+    <row spans="1:1" r="124">
+      <c t="s" r="A124">
+        <v>245</v>
+      </c>
+    </row>
+    <row spans="1:1" r="125">
+      <c t="s" r="A125">
+        <v>246</v>
+      </c>
+    </row>
+    <row spans="1:1" r="126">
+      <c t="s" r="A126">
+        <v>247</v>
+      </c>
+    </row>
+    <row spans="1:1" r="127">
+      <c t="s" r="A127">
+        <v>248</v>
+      </c>
+    </row>
+    <row spans="1:1" r="128">
+      <c t="s" r="A128">
+        <v>249</v>
+      </c>
+    </row>
+    <row spans="1:1" r="129">
+      <c t="s" r="A129">
+        <v>250</v>
+      </c>
+    </row>
+    <row spans="1:1" r="130">
+      <c t="s" r="A130">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:1" r="131">
+      <c t="s" r="A131">
+        <v>252</v>
+      </c>
+    </row>
+    <row spans="1:1" r="132">
+      <c t="s" r="A132">
+        <v>257</v>
+      </c>
+    </row>
+    <row spans="1:1" r="133">
+      <c t="s" r="A133">
+        <v>258</v>
+      </c>
+    </row>
+    <row spans="1:1" r="134">
+      <c t="s" r="A134">
+        <v>259</v>
+      </c>
+    </row>
+    <row spans="1:1" r="135">
+      <c t="s" r="A135">
+        <v>260</v>
+      </c>
+    </row>
+    <row spans="1:1" r="136">
+      <c t="s" r="A136">
+        <v>261</v>
+      </c>
+    </row>
+    <row spans="1:1" r="137">
+      <c t="s" r="A137">
+        <v>263</v>
+      </c>
+    </row>
+    <row spans="1:1" r="138">
+      <c t="s" r="A138">
+        <v>264</v>
+      </c>
+    </row>
+    <row spans="1:1" r="139">
+      <c t="s" r="A139">
+        <v>265</v>
+      </c>
+    </row>
+    <row spans="1:1" r="140">
+      <c t="s" r="A140">
+        <v>266</v>
+      </c>
+    </row>
+    <row spans="1:1" r="141">
+      <c t="s" r="A141">
+        <v>267</v>
+      </c>
+    </row>
+    <row spans="1:1" r="142">
+      <c t="s" r="A142">
+        <v>268</v>
+      </c>
+    </row>
+    <row spans="1:1" r="143">
+      <c t="s" r="A143">
+        <v>269</v>
+      </c>
+    </row>
+    <row spans="1:1" r="144">
+      <c t="s" r="A144">
+        <v>270</v>
+      </c>
+    </row>
+    <row spans="1:1" r="145">
+      <c t="s" r="A145">
+        <v>271</v>
+      </c>
+    </row>
+    <row spans="1:1" r="146">
+      <c t="s" r="A146">
+        <v>272</v>
+      </c>
+    </row>
+    <row spans="1:1" r="147">
+      <c t="s" r="A147">
+        <v>273</v>
+      </c>
+    </row>
+    <row spans="1:1" r="148">
+      <c t="s" r="A148">
+        <v>274</v>
+      </c>
+    </row>
+    <row spans="1:1" r="149">
+      <c t="s" r="A149">
+        <v>275</v>
+      </c>
+    </row>
+    <row spans="1:1" r="150">
+      <c t="s" r="A150">
+        <v>276</v>
+      </c>
+    </row>
+    <row spans="1:1" r="151">
+      <c t="s" r="A151">
+        <v>277</v>
+      </c>
+    </row>
+    <row spans="1:1" r="152">
+      <c t="s" r="A152">
+        <v>278</v>
+      </c>
+    </row>
+    <row spans="1:1" r="153">
+      <c t="s" r="A153">
+        <v>280</v>
+      </c>
+    </row>
+    <row spans="1:1" r="154">
+      <c t="s" r="A154">
+        <v>282</v>
+      </c>
+    </row>
+    <row spans="1:1" r="155">
+      <c t="s" r="A155">
+        <v>283</v>
+      </c>
+    </row>
+    <row spans="1:1" r="156">
+      <c t="s" r="A156">
+        <v>285</v>
+      </c>
+    </row>
+    <row spans="1:1" r="157">
+      <c t="s" r="A157">
+        <v>286</v>
+      </c>
+    </row>
+    <row spans="1:1" r="158">
+      <c t="s" r="A158">
+        <v>287</v>
+      </c>
+    </row>
+    <row spans="1:1" r="159">
+      <c t="s" r="A159">
+        <v>288</v>
+      </c>
+    </row>
+    <row spans="1:1" r="160">
+      <c t="s" r="A160">
+        <v>289</v>
+      </c>
+    </row>
+    <row spans="1:1" r="161">
+      <c t="s" r="A161">
+        <v>290</v>
+      </c>
+    </row>
+    <row spans="1:1" r="162">
+      <c t="s" r="A162">
+        <v>291</v>
+      </c>
+    </row>
+    <row spans="1:1" r="163">
+      <c t="s" r="A163">
+        <v>292</v>
+      </c>
+    </row>
+    <row spans="1:1" r="164">
+      <c t="s" r="A164">
+        <v>293</v>
+      </c>
+    </row>
+    <row spans="1:1" r="165">
+      <c t="s" r="A165">
+        <v>294</v>
+      </c>
+    </row>
+    <row spans="1:1" r="166">
+      <c t="s" r="A166">
+        <v>318</v>
+      </c>
+    </row>
+    <row spans="1:1" r="167">
+      <c t="s" r="A167">
+        <v>323</v>
+      </c>
+    </row>
+    <row spans="1:1" r="168">
+      <c t="s" r="A168">
+        <v>324</v>
+      </c>
+    </row>
+    <row spans="1:1" r="169">
+      <c t="s" r="A169">
+        <v>325</v>
+      </c>
+    </row>
+    <row spans="1:1" r="170">
+      <c t="s" r="A170">
+        <v>326</v>
+      </c>
+    </row>
+    <row spans="1:1" r="171">
+      <c t="s" r="A171">
+        <v>327</v>
+      </c>
+    </row>
+    <row spans="1:1" r="172">
+      <c t="s" r="A172">
+        <v>328</v>
+      </c>
+    </row>
+    <row spans="1:1" r="173">
+      <c t="s" r="A173">
+        <v>329</v>
+      </c>
+    </row>
+    <row spans="1:1" r="174">
+      <c t="s" r="A174">
+        <v>330</v>
+      </c>
+    </row>
+    <row spans="1:1" r="175">
+      <c t="s" r="A175">
+        <v>331</v>
+      </c>
+    </row>
+    <row spans="1:1" r="176">
+      <c t="s" r="A176">
+        <v>332</v>
+      </c>
+    </row>
+    <row spans="1:1" r="177">
+      <c t="s" r="A177">
+        <v>333</v>
+      </c>
+    </row>
+    <row spans="1:1" r="178">
+      <c t="s" r="A178">
+        <v>334</v>
+      </c>
+    </row>
+    <row spans="1:1" r="179">
+      <c t="s" r="A179">
+        <v>335</v>
+      </c>
+    </row>
+    <row spans="1:1" r="180">
+      <c t="s" r="A180">
+        <v>340</v>
+      </c>
+    </row>
+    <row spans="1:1" r="181">
+      <c t="s" r="A181">
+        <v>341</v>
+      </c>
+    </row>
+    <row spans="1:1" r="182">
+      <c t="s" r="A182">
+        <v>342</v>
+      </c>
+    </row>
+    <row spans="1:1" r="183">
+      <c t="s" r="A183">
+        <v>343</v>
+      </c>
+    </row>
+    <row spans="1:1" r="184">
+      <c t="s" r="A184">
+        <v>344</v>
+      </c>
+    </row>
+    <row spans="1:1" r="185">
+      <c t="s" r="A185">
+        <v>361</v>
+      </c>
+    </row>
+    <row spans="1:1" r="186">
+      <c t="s" r="A186">
+        <v>381</v>
+      </c>
+    </row>
+    <row spans="1:1" r="187">
+      <c t="s" r="A187">
+        <v>362</v>
+      </c>
+    </row>
+    <row spans="1:1" r="188">
+      <c t="s" r="A188">
+        <v>363</v>
+      </c>
+    </row>
+    <row spans="1:1" r="189">
+      <c t="s" r="A189">
+        <v>364</v>
+      </c>
+    </row>
+    <row spans="1:1" r="190">
+      <c t="s" r="A190">
+        <v>365</v>
+      </c>
+    </row>
+    <row spans="1:1" r="191">
+      <c t="s" r="A191">
+        <v>366</v>
+      </c>
+    </row>
+    <row spans="1:1" r="192">
+      <c t="s" r="A192">
+        <v>367</v>
+      </c>
+    </row>
+    <row spans="1:1" r="193">
+      <c t="s" r="A193">
+        <v>368</v>
+      </c>
+    </row>
+    <row spans="1:1" r="194">
+      <c t="s" r="A194">
+        <v>369</v>
+      </c>
+    </row>
+    <row spans="1:1" r="195">
+      <c t="s" r="A195">
+        <v>370</v>
+      </c>
+    </row>
+    <row spans="1:1" r="196">
+      <c t="s" r="A196">
+        <v>371</v>
+      </c>
+    </row>
+    <row spans="1:1" r="197">
+      <c t="s" r="A197">
+        <v>372</v>
+      </c>
+    </row>
+    <row spans="1:1" r="198">
+      <c t="s" r="A198">
+        <v>373</v>
+      </c>
+    </row>
+    <row spans="1:1" r="199">
+      <c t="s" r="A199">
+        <v>374</v>
+      </c>
+    </row>
+    <row spans="1:1" r="200">
+      <c t="s" r="A200">
+        <v>375</v>
+      </c>
+    </row>
+    <row spans="1:1" r="201">
+      <c t="s" r="A201">
+        <v>376</v>
+      </c>
+    </row>
+    <row spans="1:1" r="202">
+      <c t="s" r="A202">
+        <v>377</v>
+      </c>
+    </row>
+    <row spans="1:1" r="203">
+      <c t="s" r="A203">
+        <v>378</v>
+      </c>
+    </row>
+    <row spans="1:1" r="204">
+      <c t="s" r="A204">
+        <v>379</v>
+      </c>
+    </row>
+    <row spans="1:1" r="205">
+      <c t="s" r="A205">
+        <v>396</v>
+      </c>
+    </row>
+    <row spans="1:1" r="206">
+      <c t="s" r="A206">
+        <v>397</v>
+      </c>
+    </row>
+    <row spans="1:1" r="207">
+      <c t="s" r="A207">
+        <v>398</v>
+      </c>
+    </row>
+    <row spans="1:1" r="208">
+      <c t="s" r="A208">
+        <v>399</v>
+      </c>
+    </row>
+    <row spans="1:1" r="209">
+      <c t="s" r="A209">
+        <v>400</v>
+      </c>
+    </row>
+    <row spans="1:1" r="210">
+      <c t="s" r="A210">
+        <v>401</v>
+      </c>
+    </row>
+    <row spans="1:1" r="211">
+      <c t="s" r="A211">
+        <v>402</v>
+      </c>
+    </row>
+    <row spans="1:1" r="212">
+      <c t="s" r="A212">
+        <v>404</v>
+      </c>
+    </row>
+    <row spans="1:1" r="213">
+      <c t="s" r="A213">
+        <v>405</v>
+      </c>
+    </row>
+    <row spans="1:1" r="214">
+      <c t="s" r="A214">
+        <v>406</v>
+      </c>
+    </row>
+    <row spans="1:1" r="215">
+      <c t="s" r="A215">
+        <v>407</v>
+      </c>
+    </row>
+    <row spans="1:1" r="216">
+      <c t="s" r="A216">
+        <v>408</v>
+      </c>
+    </row>
+    <row spans="1:1" r="217">
+      <c t="s" r="A217">
+        <v>409</v>
+      </c>
+    </row>
+    <row spans="1:1" r="218">
+      <c t="s" r="A218">
+        <v>410</v>
+      </c>
+    </row>
+    <row spans="1:1" r="219">
+      <c t="s" r="A219">
+        <v>411</v>
+      </c>
+    </row>
+    <row spans="1:1" r="220">
+      <c t="s" r="A220">
+        <v>412</v>
+      </c>
+    </row>
+    <row spans="1:1" r="221">
+      <c t="s" r="A221">
+        <v>417</v>
+      </c>
+    </row>
+    <row spans="1:1" r="222">
+      <c t="s" r="A222">
+        <v>418</v>
+      </c>
+    </row>
+    <row spans="1:1" r="223">
+      <c t="s" r="A223">
+        <v>419</v>
+      </c>
+    </row>
+    <row spans="1:1" r="224">
+      <c t="s" r="A224">
+        <v>420</v>
+      </c>
+    </row>
+    <row spans="1:1" r="225">
+      <c t="s" r="A225">
+        <v>422</v>
+      </c>
+    </row>
+    <row spans="1:1" r="226">
+      <c t="s" r="A226">
+        <v>423</v>
+      </c>
+    </row>
+    <row spans="1:1" r="227">
+      <c t="s" r="A227">
+        <v>424</v>
+      </c>
+    </row>
+    <row spans="1:1" r="228">
+      <c t="s" r="A228">
+        <v>429</v>
+      </c>
+    </row>
+    <row spans="1:1" r="229">
+      <c t="s" r="A229">
+        <v>430</v>
+      </c>
+    </row>
+    <row spans="1:1" r="230">
+      <c t="s" r="A230">
+        <v>431</v>
+      </c>
+    </row>
+    <row spans="1:1" r="231">
+      <c t="s" r="A231">
+        <v>432</v>
+      </c>
+    </row>
+    <row spans="1:1" r="232">
+      <c t="s" r="A232">
+        <v>433</v>
+      </c>
+    </row>
+    <row spans="1:1" r="233">
+      <c t="s" r="A233">
+        <v>434</v>
+      </c>
+    </row>
+    <row spans="1:1" r="234">
+      <c t="s" r="A234">
+        <v>435</v>
+      </c>
+    </row>
+    <row spans="1:1" r="235">
+      <c t="s" r="A235">
+        <v>436</v>
+      </c>
+    </row>
+    <row spans="1:1" r="236">
+      <c t="s" r="A236">
+        <v>437</v>
+      </c>
+    </row>
+    <row spans="1:1" r="237">
+      <c t="s" r="A237">
+        <v>443</v>
+      </c>
+    </row>
+    <row spans="1:1" r="238">
+      <c t="s" r="A238">
+        <v>444</v>
+      </c>
+    </row>
+    <row spans="1:1" r="239">
+      <c t="s" r="A239">
+        <v>445</v>
+      </c>
+    </row>
+    <row spans="1:1" r="240">
+      <c t="s" r="A240">
+        <v>446</v>
+      </c>
+    </row>
+    <row spans="1:1" r="241">
+      <c t="s" r="A241">
+        <v>447</v>
+      </c>
+    </row>
+    <row spans="1:1" r="242">
+      <c t="s" r="A242">
+        <v>448</v>
+      </c>
+    </row>
+    <row spans="1:1" r="243">
+      <c t="s" r="A243">
+        <v>449</v>
+      </c>
+    </row>
+    <row spans="1:1" r="244">
+      <c t="s" r="A244">
+        <v>107</v>
+      </c>
+    </row>
+    <row spans="1:1" r="245">
+      <c t="s" r="A245">
+        <v>139</v>
+      </c>
+    </row>
+    <row spans="1:1" r="246">
+      <c t="s" r="A246">
+        <v>175</v>
+      </c>
+    </row>
+    <row spans="1:1" r="247">
+      <c t="s" r="A247">
         <v>202</v>
       </c>
     </row>
-    <row spans="1:1" r="103">
-      <c r="A103" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row spans="1:1" r="104">
-      <c r="A104" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row spans="1:1" r="105">
-      <c r="A105" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row spans="1:1" r="106">
-      <c r="A106" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row spans="1:1" r="107">
-      <c r="A107" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row spans="1:1" r="108">
-      <c r="A108" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row spans="1:1" r="109">
-      <c r="A109" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row spans="1:1" r="110">
-      <c r="A110" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row spans="1:1" r="111">
-      <c r="A111" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row spans="1:1" r="112">
-      <c r="A112" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row spans="1:1" r="113">
-      <c r="A113" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row spans="1:1" r="114">
-      <c r="A114" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row spans="1:1" r="115">
-      <c r="A115" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row spans="1:1" r="116">
-      <c r="A116" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row spans="1:1" r="117">
-      <c r="A117" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row spans="1:1" r="118">
-      <c r="A118" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row spans="1:1" r="119">
-      <c r="A119" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row spans="1:1" r="120">
-      <c r="A120" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row spans="1:1" r="121">
-      <c r="A121" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row spans="1:1" r="122">
-      <c r="A122" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row spans="1:1" r="123">
-      <c r="A123" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row spans="1:1" r="124">
-      <c r="A124" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row spans="1:1" r="125">
-      <c r="A125" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row spans="1:1" r="126">
-      <c r="A126" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row spans="1:1" r="127">
-      <c r="A127" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row spans="1:1" r="128">
-      <c r="A128" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row spans="1:1" r="129">
-      <c r="A129" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row spans="1:1" r="130">
-      <c r="A130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:1" r="131">
-      <c r="A131" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row spans="1:1" r="132">
-      <c r="A132" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row spans="1:1" r="133">
-      <c r="A133" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row spans="1:1" r="134">
-      <c r="A134" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row spans="1:1" r="135">
-      <c r="A135" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row spans="1:1" r="136">
-      <c r="A136" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row spans="1:1" r="137">
-      <c r="A137" t="s">
+    <row spans="1:1" r="248">
+      <c t="s" r="A248">
         <v>262</v>
       </c>
     </row>
-    <row spans="1:1" r="138">
-      <c r="A138" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row spans="1:1" r="139">
-      <c r="A139" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row spans="1:1" r="140">
-      <c r="A140" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row spans="1:1" r="141">
-      <c r="A141" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row spans="1:1" r="142">
-      <c r="A142" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row spans="1:1" r="143">
-      <c r="A143" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row spans="1:1" r="144">
-      <c r="A144" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row spans="1:1" r="145">
-      <c r="A145" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row spans="1:1" r="146">
-      <c r="A146" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row spans="1:1" r="147">
-      <c r="A147" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row spans="1:1" r="148">
-      <c r="A148" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row spans="1:1" r="149">
-      <c r="A149" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row spans="1:1" r="150">
-      <c r="A150" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row spans="1:1" r="151">
-      <c r="A151" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row spans="1:1" r="152">
-      <c r="A152" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row spans="1:1" r="153">
-      <c r="A153" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row spans="1:1" r="154">
-      <c r="A154" t="s">
+    <row spans="1:1" r="249">
+      <c t="s" r="A249">
+        <v>284</v>
+      </c>
+    </row>
+    <row spans="1:1" r="250">
+      <c t="s" r="A250">
+        <v>319</v>
+      </c>
+    </row>
+    <row spans="1:1" r="251">
+      <c t="s" r="A251">
+        <v>11</v>
+      </c>
+    </row>
+    <row spans="1:1" r="252">
+      <c t="s" r="A252">
         <v>281</v>
       </c>
     </row>
-    <row spans="1:1" r="155">
-      <c r="A155" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row spans="1:1" r="156">
-      <c r="A156" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row spans="1:1" r="157">
-      <c r="A157" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row spans="1:1" r="158">
-      <c r="A158" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row spans="1:1" r="159">
-      <c r="A159" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row spans="1:1" r="160">
-      <c r="A160" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row spans="1:1" r="161">
-      <c r="A161" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row spans="1:1" r="162">
-      <c r="A162" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row spans="1:1" r="163">
-      <c r="A163" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row spans="1:1" r="164">
-      <c r="A164" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row spans="1:1" r="165">
-      <c r="A165" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row spans="1:1" r="166">
-      <c r="A166" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row spans="1:1" r="167">
-      <c r="A167" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row spans="1:1" r="168">
-      <c r="A168" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row spans="1:1" r="169">
-      <c r="A169" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row spans="1:1" r="170">
-      <c r="A170" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row spans="1:1" r="171">
-      <c r="A171" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row spans="1:1" r="172">
-      <c r="A172" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row spans="1:1" r="173">
-      <c r="A173" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row spans="1:1" r="174">
-      <c r="A174" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row spans="1:1" r="175">
-      <c r="A175" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row spans="1:1" r="176">
-      <c r="A176" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row spans="1:1" r="177">
-      <c r="A177" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row spans="1:1" r="178">
-      <c r="A178" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row spans="1:1" r="179">
-      <c r="A179" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row spans="1:1" r="180">
-      <c r="A180" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row spans="1:1" r="181">
-      <c r="A181" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row spans="1:1" r="182">
-      <c r="A182" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row spans="1:1" r="183">
-      <c r="A183" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row spans="1:1" r="184">
-      <c r="A184" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row spans="1:1" r="185">
-      <c r="A185" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row spans="1:1" r="186">
-      <c r="A186" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row spans="1:1" r="187">
-      <c r="A187" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row spans="1:1" r="188">
-      <c r="A188" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row spans="1:1" r="189">
-      <c r="A189" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row spans="1:1" r="190">
-      <c r="A190" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row spans="1:1" r="191">
-      <c r="A191" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row spans="1:1" r="192">
-      <c r="A192" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row spans="1:1" r="193">
-      <c r="A193" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row spans="1:1" r="194">
-      <c r="A194" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row spans="1:1" r="195">
-      <c r="A195" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row spans="1:1" r="196">
-      <c r="A196" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row spans="1:1" r="197">
-      <c r="A197" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row spans="1:1" r="198">
-      <c r="A198" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row spans="1:1" r="199">
-      <c r="A199" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row spans="1:1" r="200">
-      <c r="A200" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row spans="1:1" r="201">
-      <c r="A201" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row spans="1:1" r="202">
-      <c r="A202" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row spans="1:1" r="203">
-      <c r="A203" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row spans="1:1" r="204">
-      <c r="A204" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row spans="1:1" r="205">
-      <c r="A205" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row spans="1:1" r="206">
-      <c r="A206" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row spans="1:1" r="207">
-      <c r="A207" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row spans="1:1" r="208">
-      <c r="A208" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row spans="1:1" r="209">
-      <c r="A209" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row spans="1:1" r="210">
-      <c r="A210" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row spans="1:1" r="211">
-      <c r="A211" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row spans="1:1" r="212">
-      <c r="A212" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row spans="1:1" r="213">
-      <c r="A213" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row spans="1:1" r="214">
-      <c r="A214" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row spans="1:1" r="215">
-      <c r="A215" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row spans="1:1" r="216">
-      <c r="A216" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row spans="1:1" r="217">
-      <c r="A217" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row spans="1:1" r="218">
-      <c r="A218" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row spans="1:1" r="219">
-      <c r="A219" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row spans="1:1" r="220">
-      <c r="A220" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row spans="1:1" r="221">
-      <c r="A221" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row spans="1:1" r="222">
-      <c r="A222" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row spans="1:1" r="223">
-      <c r="A223" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row spans="1:1" r="224">
-      <c r="A224" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row spans="1:1" r="225">
-      <c r="A225" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row spans="1:1" r="226">
-      <c r="A226" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row spans="1:1" r="227">
-      <c r="A227" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row spans="1:1" r="228">
-      <c r="A228" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row spans="1:1" r="229">
-      <c r="A229" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row spans="1:1" r="230">
-      <c r="A230" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row spans="1:1" r="231">
-      <c r="A231" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row spans="1:1" r="232">
-      <c r="A232" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row spans="1:1" r="233">
-      <c r="A233" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row spans="1:1" r="234">
-      <c r="A234" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row spans="1:1" r="235">
-      <c r="A235" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row spans="1:1" r="236">
-      <c r="A236" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row spans="1:1" r="237">
-      <c r="A237" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row spans="1:1" r="238">
-      <c r="A238" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row spans="1:1" r="239">
-      <c r="A239" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row spans="1:1" r="240">
-      <c r="A240" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row spans="1:1" r="241">
-      <c r="A241" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row spans="1:1" r="242">
-      <c r="A242" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row spans="1:1" r="243">
-      <c r="A243" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row spans="1:1" r="244">
-      <c r="A244" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row spans="1:1" r="245">
-      <c r="A245" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row spans="1:1" r="246">
-      <c r="A246" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row spans="1:1" r="247">
-      <c r="A247" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row spans="1:1" r="248">
-      <c r="A248" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row spans="1:1" r="249">
-      <c r="A249" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row spans="1:1" r="250">
-      <c r="A250" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row spans="1:1" r="251">
-      <c r="A251" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row spans="1:1" r="252">
-      <c r="A252" t="s">
-        <v>280</v>
-      </c>
-    </row>
     <row spans="1:1" r="253">
-      <c r="A253" t="s">
+      <c t="s" r="A253">
         <v>146</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" footer="0.5" right="0.75" header="0.5" left="0.75" bottom="1"/>
+  <pageMargins bottom="1" right="0.75" left="0.75" top="1" footer="0.5" header="0.5"/>
 </worksheet>
 </file>
--- a/Crawl_with_Class.xlsx
+++ b/Crawl_with_Class.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="457">
   <si>
     <t>AD = Andorra</t>
   </si>
@@ -966,9 +966,6 @@
   </si>
   <si>
     <t>Nigerian  Academy of Sciences</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>Norwegian Academy of Sciences and  Letters</t>
@@ -1731,7 +1728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
@@ -1743,130 +1740,130 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <sheetData>
-    <row spans="1:9" r="1">
+    <row r="1" spans="1:9">
       <c t="s" s="1" r="A1">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c t="s" s="1" r="B1">
         <v>253</v>
       </c>
       <c t="s" s="1" r="C1">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c t="s" s="1" r="D1">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c t="s" s="1" r="E1">
         <v>137</v>
       </c>
       <c t="s" s="1" r="F1">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c t="s" s="1" r="G1">
         <v>126</v>
       </c>
       <c t="s" s="1" r="H1">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c t="s" s="1" r="I1">
         <v>127</v>
       </c>
     </row>
-    <row spans="1:9" r="2">
+    <row r="2" spans="1:9">
       <c t="s" r="A2">
         <v>99</v>
       </c>
       <c t="s" r="C2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c t="s" r="G2">
-        <v>316</v>
-      </c>
-    </row>
-    <row spans="1:9" r="3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c t="s" r="A3">
         <v>100</v>
       </c>
       <c t="s" r="C3">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c t="s" r="G3">
         <v>196</v>
       </c>
     </row>
-    <row spans="1:9" r="4">
+    <row r="4" spans="1:9">
       <c t="s" r="A4">
         <v>101</v>
       </c>
       <c t="s" r="C4">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c t="s" r="G4">
         <v>196</v>
       </c>
     </row>
-    <row spans="1:9" r="5">
+    <row r="5" spans="1:9">
       <c t="s" r="A5">
         <v>190</v>
       </c>
       <c t="s" r="C5">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c t="s" r="G5">
         <v>196</v>
       </c>
     </row>
-    <row spans="1:9" r="6">
+    <row r="6" spans="1:9">
       <c t="s" r="A6">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c t="s" r="C6">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c t="s" r="G6">
         <v>196</v>
       </c>
     </row>
-    <row spans="1:9" r="7">
+    <row r="7" spans="1:9">
       <c t="s" r="A7">
         <v>163</v>
       </c>
       <c t="s" r="C7">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c t="s" r="G7">
         <v>196</v>
       </c>
     </row>
-    <row spans="1:9" r="8">
+    <row r="8" spans="1:9">
       <c t="s" r="A8">
         <v>163</v>
       </c>
       <c t="s" r="C8">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c t="s" r="G8">
         <v>196</v>
       </c>
     </row>
-    <row spans="1:9" r="9">
+    <row r="9" spans="1:9">
       <c t="s" r="A9">
         <v>163</v>
       </c>
       <c t="s" r="C9">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c t="s" r="G9">
         <v>196</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" right="0.75" left="0.75" top="1" footer="0.5" header="0.5"/>
+  <pageMargins header="0.5" bottom="1" right="0.75" top="1" footer="0.5" left="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
@@ -1878,42 +1875,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <sheetData>
-    <row spans="1:9" r="1">
+    <row r="1" spans="1:9">
       <c t="s" s="1" r="A1">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c t="s" s="1" r="B1">
         <v>253</v>
       </c>
       <c t="s" s="1" r="C1">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c t="s" s="1" r="D1">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c t="s" s="1" r="E1">
         <v>137</v>
       </c>
       <c t="s" s="1" r="F1">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c t="s" s="1" r="G1">
         <v>126</v>
       </c>
       <c t="s" s="1" r="H1">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c t="s" s="1" r="I1">
         <v>127</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" right="0.75" left="0.75" top="1" footer="0.5" header="0.5"/>
+  <pageMargins header="0.5" bottom="1" right="0.75" top="1" footer="0.5" left="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
@@ -1925,923 +1922,923 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <sheetData>
-    <row spans="1:1" r="2">
+    <row r="2" spans="1:1">
       <c t="s" r="A2">
         <v>17</v>
       </c>
     </row>
-    <row spans="1:1" r="3">
+    <row r="3" spans="1:1">
       <c t="s" r="A3">
         <v>21</v>
       </c>
     </row>
-    <row spans="1:1" r="4">
+    <row r="4" spans="1:1">
       <c t="s" r="A4">
         <v>23</v>
       </c>
     </row>
-    <row spans="1:1" r="5">
+    <row r="5" spans="1:1">
       <c t="s" r="A5">
         <v>22</v>
       </c>
     </row>
-    <row spans="1:1" r="6">
+    <row r="6" spans="1:1">
       <c t="s" r="A6">
         <v>18</v>
       </c>
     </row>
-    <row spans="1:1" r="7">
+    <row r="7" spans="1:1">
       <c t="s" r="A7">
         <v>19</v>
       </c>
     </row>
-    <row spans="1:1" r="8">
+    <row r="8" spans="1:1">
       <c t="s" r="A8">
         <v>20</v>
       </c>
     </row>
-    <row spans="1:1" r="9">
+    <row r="9" spans="1:1">
       <c t="s" r="A9">
         <v>34</v>
       </c>
     </row>
-    <row spans="1:1" r="10">
+    <row r="10" spans="1:1">
       <c t="s" r="A10">
         <v>35</v>
       </c>
     </row>
-    <row spans="1:1" r="11">
+    <row r="11" spans="1:1">
       <c t="s" r="A11">
         <v>24</v>
       </c>
     </row>
-    <row spans="1:1" r="12">
+    <row r="12" spans="1:1">
       <c t="s" r="A12">
         <v>31</v>
       </c>
     </row>
-    <row spans="1:1" r="13">
+    <row r="13" spans="1:1">
       <c t="s" r="A13">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:1" r="14">
+    <row r="14" spans="1:1">
       <c t="s" r="A14">
         <v>26</v>
       </c>
     </row>
-    <row spans="1:1" r="15">
+    <row r="15" spans="1:1">
       <c t="s" r="A15">
         <v>33</v>
       </c>
     </row>
-    <row spans="1:1" r="16">
+    <row r="16" spans="1:1">
       <c t="s" r="A16">
         <v>32</v>
       </c>
     </row>
-    <row spans="1:1" r="17">
+    <row r="17" spans="1:1">
       <c t="s" r="A17">
         <v>27</v>
       </c>
     </row>
-    <row spans="1:1" r="18">
+    <row r="18" spans="1:1">
       <c t="s" r="A18">
         <v>28</v>
       </c>
     </row>
-    <row spans="1:1" r="19">
+    <row r="19" spans="1:1">
       <c t="s" r="A19">
         <v>29</v>
       </c>
     </row>
-    <row spans="1:1" r="20">
+    <row r="20" spans="1:1">
       <c t="s" r="A20">
         <v>30</v>
       </c>
     </row>
-    <row spans="1:1" r="21">
+    <row r="21" spans="1:1">
       <c t="s" r="A21">
         <v>36</v>
       </c>
     </row>
-    <row spans="1:1" r="22">
+    <row r="22" spans="1:1">
       <c t="s" r="A22">
         <v>37</v>
       </c>
     </row>
-    <row spans="1:1" r="23">
+    <row r="23" spans="1:1">
       <c t="s" r="A23">
         <v>38</v>
       </c>
     </row>
-    <row spans="1:1" r="24">
+    <row r="24" spans="1:1">
       <c t="s" r="A24">
         <v>39</v>
       </c>
     </row>
-    <row spans="1:1" r="25">
+    <row r="25" spans="1:1">
       <c t="s" r="A25">
         <v>40</v>
       </c>
     </row>
-    <row spans="1:1" r="26">
+    <row r="26" spans="1:1">
       <c t="s" r="A26">
         <v>41</v>
       </c>
     </row>
-    <row spans="1:1" r="27">
+    <row r="27" spans="1:1">
       <c t="s" r="A27">
         <v>42</v>
       </c>
     </row>
-    <row spans="1:1" r="28">
+    <row r="28" spans="1:1">
       <c t="s" r="A28">
         <v>53</v>
       </c>
     </row>
-    <row spans="1:1" r="29">
+    <row r="29" spans="1:1">
       <c t="s" r="A29">
         <v>43</v>
       </c>
     </row>
-    <row spans="1:1" r="30">
+    <row r="30" spans="1:1">
       <c t="s" r="A30">
         <v>44</v>
       </c>
     </row>
-    <row spans="1:1" r="31">
+    <row r="31" spans="1:1">
       <c t="s" r="A31">
         <v>54</v>
       </c>
     </row>
-    <row spans="1:1" r="32">
+    <row r="32" spans="1:1">
       <c t="s" r="A32">
         <v>45</v>
       </c>
     </row>
-    <row spans="1:1" r="33">
+    <row r="33" spans="1:1">
       <c t="s" r="A33">
         <v>46</v>
       </c>
     </row>
-    <row spans="1:1" r="34">
+    <row r="34" spans="1:1">
       <c t="s" r="A34">
         <v>55</v>
       </c>
     </row>
-    <row spans="1:1" r="35">
+    <row r="35" spans="1:1">
       <c t="s" r="A35">
         <v>56</v>
       </c>
     </row>
-    <row spans="1:1" r="36">
+    <row r="36" spans="1:1">
       <c t="s" r="A36">
         <v>47</v>
       </c>
     </row>
-    <row spans="1:1" r="37">
+    <row r="37" spans="1:1">
       <c t="s" r="A37">
         <v>57</v>
       </c>
     </row>
-    <row spans="1:1" r="38">
+    <row r="38" spans="1:1">
       <c t="s" r="A38">
         <v>58</v>
       </c>
     </row>
-    <row spans="1:1" r="39">
+    <row r="39" spans="1:1">
       <c t="s" r="A39">
         <v>48</v>
       </c>
     </row>
-    <row spans="1:1" r="40">
+    <row r="40" spans="1:1">
       <c t="s" r="A40">
         <v>59</v>
       </c>
     </row>
-    <row spans="1:1" r="41">
+    <row r="41" spans="1:1">
       <c t="s" r="A41">
         <v>49</v>
       </c>
     </row>
-    <row spans="1:1" r="42">
+    <row r="42" spans="1:1">
       <c t="s" r="A42">
         <v>50</v>
       </c>
     </row>
-    <row spans="1:1" r="43">
+    <row r="43" spans="1:1">
       <c t="s" r="A43">
         <v>51</v>
       </c>
     </row>
-    <row spans="1:1" r="44">
+    <row r="44" spans="1:1">
       <c t="s" r="A44">
         <v>52</v>
       </c>
     </row>
-    <row spans="1:1" r="45">
+    <row r="45" spans="1:1">
       <c t="s" r="A45">
         <v>60</v>
       </c>
     </row>
-    <row spans="1:1" r="46">
+    <row r="46" spans="1:1">
       <c t="s" r="A46">
         <v>61</v>
       </c>
     </row>
-    <row spans="1:1" r="47">
+    <row r="47" spans="1:1">
       <c t="s" r="A47">
         <v>62</v>
       </c>
     </row>
-    <row spans="1:1" r="48">
+    <row r="48" spans="1:1">
       <c t="s" r="A48">
         <v>67</v>
       </c>
     </row>
-    <row spans="1:1" r="49">
+    <row r="49" spans="1:1">
       <c t="s" r="A49">
         <v>63</v>
       </c>
     </row>
-    <row spans="1:1" r="50">
+    <row r="50" spans="1:1">
       <c t="s" r="A50">
         <v>64</v>
       </c>
     </row>
-    <row spans="1:1" r="51">
+    <row r="51" spans="1:1">
       <c t="s" r="A51">
         <v>65</v>
       </c>
     </row>
-    <row spans="1:1" r="52">
+    <row r="52" spans="1:1">
       <c t="s" r="A52">
         <v>66</v>
       </c>
     </row>
-    <row spans="1:1" r="53">
+    <row r="53" spans="1:1">
       <c t="s" r="A53">
         <v>68</v>
       </c>
     </row>
-    <row spans="1:1" r="54">
+    <row r="54" spans="1:1">
       <c t="s" r="A54">
         <v>88</v>
       </c>
     </row>
-    <row spans="1:1" r="55">
+    <row r="55" spans="1:1">
       <c t="s" r="A55">
         <v>89</v>
       </c>
     </row>
-    <row spans="1:1" r="56">
+    <row r="56" spans="1:1">
       <c t="s" r="A56">
         <v>90</v>
       </c>
     </row>
-    <row spans="1:1" r="57">
+    <row r="57" spans="1:1">
       <c t="s" r="A57">
         <v>91</v>
       </c>
     </row>
-    <row spans="1:1" r="58">
+    <row r="58" spans="1:1">
       <c t="s" r="A58">
         <v>92</v>
       </c>
     </row>
-    <row spans="1:1" r="59">
+    <row r="59" spans="1:1">
       <c t="s" r="A59">
         <v>115</v>
       </c>
     </row>
-    <row spans="1:1" r="60">
+    <row r="60" spans="1:1">
       <c t="s" r="A60">
         <v>116</v>
       </c>
     </row>
-    <row spans="1:1" r="61">
+    <row r="61" spans="1:1">
       <c t="s" r="A61">
         <v>120</v>
       </c>
     </row>
-    <row spans="1:1" r="62">
+    <row r="62" spans="1:1">
       <c t="s" r="A62">
         <v>117</v>
       </c>
     </row>
-    <row spans="1:1" r="63">
+    <row r="63" spans="1:1">
       <c t="s" r="A63">
         <v>121</v>
       </c>
     </row>
-    <row spans="1:1" r="64">
+    <row r="64" spans="1:1">
       <c t="s" r="A64">
         <v>118</v>
       </c>
     </row>
-    <row spans="1:1" r="65">
+    <row r="65" spans="1:1">
       <c t="s" r="A65">
         <v>119</v>
       </c>
     </row>
-    <row spans="1:1" r="66">
+    <row r="66" spans="1:1">
       <c t="s" r="A66">
         <v>122</v>
       </c>
     </row>
-    <row spans="1:1" r="67">
+    <row r="67" spans="1:1">
       <c t="s" r="A67">
         <v>123</v>
       </c>
     </row>
-    <row spans="1:1" r="68">
+    <row r="68" spans="1:1">
       <c t="s" r="A68">
         <v>124</v>
       </c>
     </row>
-    <row spans="1:1" r="69">
+    <row r="69" spans="1:1">
       <c t="s" r="A69">
         <v>125</v>
       </c>
     </row>
-    <row spans="1:1" r="70">
+    <row r="70" spans="1:1">
       <c t="s" r="A70">
         <v>128</v>
       </c>
     </row>
-    <row spans="1:1" r="71">
+    <row r="71" spans="1:1">
       <c t="s" r="A71">
         <v>129</v>
       </c>
     </row>
-    <row spans="1:1" r="72">
+    <row r="72" spans="1:1">
       <c t="s" r="A72">
         <v>136</v>
       </c>
     </row>
-    <row spans="1:1" r="73">
+    <row r="73" spans="1:1">
       <c t="s" r="A73">
         <v>148</v>
       </c>
     </row>
-    <row spans="1:1" r="74">
+    <row r="74" spans="1:1">
       <c t="s" r="A74">
         <v>147</v>
       </c>
     </row>
-    <row spans="1:1" r="75">
+    <row r="75" spans="1:1">
       <c t="s" r="A75">
         <v>149</v>
       </c>
     </row>
-    <row spans="1:1" r="76">
+    <row r="76" spans="1:1">
       <c t="s" r="A76">
         <v>153</v>
       </c>
     </row>
-    <row spans="1:1" r="77">
+    <row r="77" spans="1:1">
       <c t="s" r="A77">
         <v>154</v>
       </c>
     </row>
-    <row spans="1:1" r="78">
+    <row r="78" spans="1:1">
       <c t="s" r="A78">
         <v>150</v>
       </c>
     </row>
-    <row spans="1:1" r="79">
+    <row r="79" spans="1:1">
       <c t="s" r="A79">
         <v>151</v>
       </c>
     </row>
-    <row spans="1:1" r="80">
+    <row r="80" spans="1:1">
       <c t="s" r="A80">
         <v>152</v>
       </c>
     </row>
-    <row spans="1:1" r="81">
+    <row r="81" spans="1:1">
       <c t="s" r="A81">
         <v>162</v>
       </c>
     </row>
-    <row spans="1:1" r="82">
+    <row r="82" spans="1:1">
       <c t="s" r="A82">
         <v>164</v>
       </c>
     </row>
-    <row spans="1:1" r="83">
+    <row r="83" spans="1:1">
       <c t="s" r="A83">
         <v>184</v>
       </c>
     </row>
-    <row spans="1:1" r="84">
+    <row r="84" spans="1:1">
       <c t="s" r="A84">
         <v>185</v>
       </c>
     </row>
-    <row spans="1:1" r="85">
+    <row r="85" spans="1:1">
       <c t="s" r="A85">
         <v>186</v>
       </c>
     </row>
-    <row spans="1:1" r="86">
+    <row r="86" spans="1:1">
       <c t="s" r="A86">
         <v>187</v>
       </c>
     </row>
-    <row spans="1:1" r="87">
+    <row r="87" spans="1:1">
       <c t="s" r="A87">
         <v>188</v>
       </c>
     </row>
-    <row spans="1:1" r="88">
+    <row r="88" spans="1:1">
       <c t="s" r="A88">
         <v>189</v>
       </c>
     </row>
-    <row spans="1:1" r="89">
+    <row r="89" spans="1:1">
       <c t="s" r="A89">
         <v>208</v>
       </c>
     </row>
-    <row spans="1:1" r="90">
+    <row r="90" spans="1:1">
       <c t="s" r="A90">
         <v>209</v>
       </c>
     </row>
-    <row spans="1:1" r="91">
+    <row r="91" spans="1:1">
       <c t="s" r="A91">
         <v>210</v>
       </c>
     </row>
-    <row spans="1:1" r="92">
+    <row r="92" spans="1:1">
       <c t="s" r="A92">
         <v>211</v>
       </c>
     </row>
-    <row spans="1:1" r="93">
+    <row r="93" spans="1:1">
       <c t="s" r="A93">
         <v>212</v>
       </c>
     </row>
-    <row spans="1:1" r="94">
+    <row r="94" spans="1:1">
       <c t="s" r="A94">
         <v>213</v>
       </c>
     </row>
-    <row spans="1:1" r="95">
+    <row r="95" spans="1:1">
       <c t="s" r="A95">
         <v>215</v>
       </c>
     </row>
-    <row spans="1:1" r="96">
+    <row r="96" spans="1:1">
       <c t="s" r="A96">
         <v>216</v>
       </c>
     </row>
-    <row spans="1:1" r="97">
+    <row r="97" spans="1:1">
       <c t="s" r="A97">
         <v>217</v>
       </c>
     </row>
-    <row spans="1:1" r="98">
+    <row r="98" spans="1:1">
       <c t="s" r="A98">
         <v>218</v>
       </c>
     </row>
-    <row spans="1:1" r="99">
+    <row r="99" spans="1:1">
       <c t="s" r="A99">
         <v>219</v>
       </c>
     </row>
-    <row spans="1:1" r="100">
+    <row r="100" spans="1:1">
       <c t="s" r="A100">
         <v>214</v>
       </c>
     </row>
-    <row spans="1:1" r="101">
+    <row r="101" spans="1:1">
       <c t="s" r="A101">
         <v>220</v>
       </c>
     </row>
-    <row spans="1:1" r="102">
+    <row r="102" spans="1:1">
       <c t="s" r="A102">
         <v>221</v>
       </c>
     </row>
-    <row spans="1:1" r="103">
+    <row r="103" spans="1:1">
       <c t="s" r="A103">
         <v>222</v>
       </c>
     </row>
-    <row spans="1:1" r="104">
+    <row r="104" spans="1:1">
       <c t="s" r="A104">
         <v>223</v>
       </c>
     </row>
-    <row spans="1:1" r="105">
+    <row r="105" spans="1:1">
       <c t="s" r="A105">
         <v>224</v>
       </c>
     </row>
-    <row spans="1:1" r="106">
+    <row r="106" spans="1:1">
       <c t="s" r="A106">
         <v>239</v>
       </c>
     </row>
-    <row spans="1:1" r="107">
+    <row r="107" spans="1:1">
       <c t="s" r="A107">
         <v>240</v>
       </c>
     </row>
-    <row spans="1:1" r="108">
+    <row r="108" spans="1:1">
       <c t="s" r="A108">
         <v>241</v>
       </c>
     </row>
-    <row spans="1:1" r="109">
+    <row r="109" spans="1:1">
       <c t="s" r="A109">
-        <v>457</v>
-      </c>
-    </row>
-    <row spans="1:1" r="110">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
       <c t="s" r="A110">
         <v>254</v>
       </c>
     </row>
-    <row spans="1:1" r="111">
+    <row r="111" spans="1:1">
       <c t="s" r="A111">
         <v>255</v>
       </c>
     </row>
-    <row spans="1:1" r="112">
+    <row r="112" spans="1:1">
       <c t="s" r="A112">
         <v>256</v>
       </c>
     </row>
-    <row spans="1:1" r="113">
+    <row r="113" spans="1:1">
       <c t="s" r="A113">
         <v>279</v>
       </c>
     </row>
-    <row spans="1:1" r="114">
+    <row r="114" spans="1:1">
       <c t="s" r="A114">
         <v>299</v>
       </c>
     </row>
-    <row spans="1:1" r="115">
+    <row r="115" spans="1:1">
       <c t="s" r="A115">
         <v>301</v>
       </c>
     </row>
-    <row spans="1:1" r="116">
+    <row r="116" spans="1:1">
       <c t="s" r="A116">
         <v>300</v>
       </c>
     </row>
-    <row spans="1:1" r="117">
+    <row r="117" spans="1:1">
       <c t="s" r="A117">
         <v>302</v>
       </c>
     </row>
-    <row spans="1:1" r="118">
+    <row r="118" spans="1:1">
       <c t="s" r="A118">
         <v>303</v>
       </c>
     </row>
-    <row spans="1:1" r="119">
+    <row r="119" spans="1:1">
       <c t="s" r="A119">
         <v>304</v>
       </c>
     </row>
-    <row spans="1:1" r="120">
+    <row r="120" spans="1:1">
       <c t="s" r="A120">
         <v>306</v>
       </c>
     </row>
-    <row spans="1:1" r="121">
+    <row r="121" spans="1:1">
       <c t="s" r="A121">
         <v>305</v>
       </c>
     </row>
-    <row spans="1:1" r="122">
+    <row r="122" spans="1:1">
       <c t="s" r="A122">
         <v>295</v>
       </c>
     </row>
-    <row spans="1:1" r="123">
+    <row r="123" spans="1:1">
       <c t="s" r="A123">
         <v>296</v>
       </c>
     </row>
-    <row spans="1:1" r="124">
+    <row r="124" spans="1:1">
       <c t="s" r="A124">
         <v>307</v>
       </c>
     </row>
-    <row spans="1:1" r="125">
+    <row r="125" spans="1:1">
       <c t="s" r="A125">
         <v>308</v>
       </c>
     </row>
-    <row spans="1:1" r="126">
+    <row r="126" spans="1:1">
       <c t="s" r="A126">
         <v>297</v>
       </c>
     </row>
-    <row spans="1:1" r="127">
+    <row r="127" spans="1:1">
       <c t="s" r="A127">
         <v>298</v>
       </c>
     </row>
-    <row spans="1:1" r="128">
+    <row r="128" spans="1:1">
       <c t="s" r="A128">
         <v>310</v>
       </c>
     </row>
-    <row spans="1:1" r="129">
+    <row r="129" spans="1:1">
       <c t="s" r="A129">
         <v>311</v>
       </c>
     </row>
-    <row spans="1:1" r="130">
+    <row r="130" spans="1:1">
       <c t="s" r="A130">
         <v>309</v>
       </c>
     </row>
-    <row spans="1:1" r="131">
+    <row r="131" spans="1:1">
       <c t="s" r="A131">
         <v>312</v>
       </c>
     </row>
-    <row spans="1:1" r="132">
+    <row r="132" spans="1:1">
       <c t="s" r="A132">
         <v>313</v>
       </c>
     </row>
-    <row spans="1:1" r="133">
+    <row r="133" spans="1:1">
       <c t="s" r="A133">
         <v>314</v>
       </c>
     </row>
-    <row spans="1:1" r="134">
+    <row r="134" spans="1:1">
       <c t="s" r="A134">
         <v>315</v>
       </c>
     </row>
-    <row spans="1:1" r="135">
+    <row r="135" spans="1:1">
       <c t="s" r="A135">
-        <v>317</v>
-      </c>
-    </row>
-    <row spans="1:1" r="136">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
       <c t="s" r="A136">
-        <v>320</v>
-      </c>
-    </row>
-    <row spans="1:1" r="137">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
       <c t="s" r="A137">
-        <v>322</v>
-      </c>
-    </row>
-    <row spans="1:1" r="138">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
       <c t="s" r="A138">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c t="s" r="A139">
         <v>336</v>
       </c>
     </row>
-    <row spans="1:1" r="139">
-      <c t="s" r="A139">
+    <row r="140" spans="1:1">
+      <c t="s" r="A140">
         <v>337</v>
       </c>
     </row>
-    <row spans="1:1" r="140">
-      <c t="s" r="A140">
+    <row r="141" spans="1:1">
+      <c t="s" r="A141">
         <v>338</v>
       </c>
     </row>
-    <row spans="1:1" r="141">
-      <c t="s" r="A141">
-        <v>339</v>
-      </c>
-    </row>
-    <row spans="1:1" r="142">
+    <row r="142" spans="1:1">
       <c t="s" r="A142">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c t="s" r="A143">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c t="s" r="A144">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c t="s" r="A145">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c t="s" r="A146">
         <v>346</v>
       </c>
     </row>
-    <row spans="1:1" r="143">
-      <c t="s" r="A143">
-        <v>350</v>
-      </c>
-    </row>
-    <row spans="1:1" r="144">
-      <c t="s" r="A144">
-        <v>351</v>
-      </c>
-    </row>
-    <row spans="1:1" r="145">
-      <c t="s" r="A145">
+    <row r="147" spans="1:1">
+      <c t="s" r="A147">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c t="s" r="A148">
         <v>352</v>
       </c>
     </row>
-    <row spans="1:1" r="146">
-      <c t="s" r="A146">
-        <v>347</v>
-      </c>
-    </row>
-    <row spans="1:1" r="147">
-      <c t="s" r="A147">
+    <row r="149" spans="1:1">
+      <c t="s" r="A149">
         <v>348</v>
       </c>
     </row>
-    <row spans="1:1" r="148">
-      <c t="s" r="A148">
+    <row r="150" spans="1:1">
+      <c t="s" r="A150">
         <v>353</v>
       </c>
     </row>
-    <row spans="1:1" r="149">
-      <c t="s" r="A149">
-        <v>349</v>
-      </c>
-    </row>
-    <row spans="1:1" r="150">
-      <c t="s" r="A150">
+    <row r="151" spans="1:1">
+      <c t="s" r="A151">
         <v>354</v>
       </c>
     </row>
-    <row spans="1:1" r="151">
-      <c t="s" r="A151">
+    <row r="152" spans="1:1">
+      <c t="s" r="A152">
         <v>355</v>
       </c>
     </row>
-    <row spans="1:1" r="152">
-      <c t="s" r="A152">
+    <row r="153" spans="1:1">
+      <c t="s" r="A153">
         <v>356</v>
       </c>
     </row>
-    <row spans="1:1" r="153">
-      <c t="s" r="A153">
+    <row r="154" spans="1:1">
+      <c t="s" r="A154">
         <v>357</v>
       </c>
     </row>
-    <row spans="1:1" r="154">
-      <c t="s" r="A154">
+    <row r="155" spans="1:1">
+      <c t="s" r="A155">
         <v>358</v>
       </c>
     </row>
-    <row spans="1:1" r="155">
-      <c t="s" r="A155">
+    <row r="156" spans="1:1">
+      <c t="s" r="A156">
         <v>359</v>
       </c>
     </row>
-    <row spans="1:1" r="156">
-      <c t="s" r="A156">
-        <v>360</v>
-      </c>
-    </row>
-    <row spans="1:1" r="157">
+    <row r="157" spans="1:1">
       <c t="s" r="A157">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c t="s" r="A158">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c t="s" r="A159">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c t="s" r="A160">
         <v>383</v>
       </c>
     </row>
-    <row spans="1:1" r="158">
-      <c t="s" r="A158">
-        <v>382</v>
-      </c>
-    </row>
-    <row spans="1:1" r="159">
-      <c t="s" r="A159">
+    <row r="161" spans="1:1">
+      <c t="s" r="A161">
         <v>385</v>
       </c>
     </row>
-    <row spans="1:1" r="160">
-      <c t="s" r="A160">
-        <v>384</v>
-      </c>
-    </row>
-    <row spans="1:1" r="161">
-      <c t="s" r="A161">
+    <row r="162" spans="1:1">
+      <c t="s" r="A162">
         <v>386</v>
       </c>
     </row>
-    <row spans="1:1" r="162">
-      <c t="s" r="A162">
+    <row r="163" spans="1:1">
+      <c t="s" r="A163">
         <v>387</v>
       </c>
     </row>
-    <row spans="1:1" r="163">
-      <c t="s" r="A163">
+    <row r="164" spans="1:1">
+      <c t="s" r="A164">
         <v>388</v>
       </c>
     </row>
-    <row spans="1:1" r="164">
-      <c t="s" r="A164">
+    <row r="165" spans="1:1">
+      <c t="s" r="A165">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c t="s" r="A166">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c t="s" r="A167">
         <v>389</v>
       </c>
     </row>
-    <row spans="1:1" r="165">
-      <c t="s" r="A165">
-        <v>392</v>
-      </c>
-    </row>
-    <row spans="1:1" r="166">
-      <c t="s" r="A166">
+    <row r="168" spans="1:1">
+      <c t="s" r="A168">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c t="s" r="A169">
         <v>393</v>
       </c>
     </row>
-    <row spans="1:1" r="167">
-      <c t="s" r="A167">
-        <v>390</v>
-      </c>
-    </row>
-    <row spans="1:1" r="168">
-      <c t="s" r="A168">
-        <v>391</v>
-      </c>
-    </row>
-    <row spans="1:1" r="169">
-      <c t="s" r="A169">
+    <row r="170" spans="1:1">
+      <c t="s" r="A170">
         <v>394</v>
       </c>
     </row>
-    <row spans="1:1" r="170">
-      <c t="s" r="A170">
-        <v>395</v>
-      </c>
-    </row>
-    <row spans="1:1" r="171">
+    <row r="171" spans="1:1">
       <c t="s" r="A171">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c t="s" r="A172">
         <v>413</v>
       </c>
     </row>
-    <row spans="1:1" r="172">
-      <c t="s" r="A172">
-        <v>414</v>
-      </c>
-    </row>
-    <row spans="1:1" r="173">
+    <row r="173" spans="1:1">
       <c t="s" r="A173">
-        <v>416</v>
-      </c>
-    </row>
-    <row spans="1:1" r="174">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
       <c t="s" r="A174">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c t="s" r="A175">
         <v>425</v>
       </c>
     </row>
-    <row spans="1:1" r="175">
-      <c t="s" r="A175">
+    <row r="176" spans="1:1">
+      <c t="s" r="A176">
         <v>426</v>
       </c>
     </row>
-    <row spans="1:1" r="176">
-      <c t="s" r="A176">
+    <row r="177" spans="1:1">
+      <c t="s" r="A177">
         <v>427</v>
       </c>
     </row>
-    <row spans="1:1" r="177">
-      <c t="s" r="A177">
-        <v>428</v>
-      </c>
-    </row>
-    <row spans="1:1" r="178">
+    <row r="178" spans="1:1">
       <c t="s" r="A178">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c t="s" r="A179">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c t="s" r="A180">
         <v>438</v>
       </c>
     </row>
-    <row spans="1:1" r="179">
-      <c t="s" r="A179">
+    <row r="181" spans="1:1">
+      <c t="s" r="A181">
         <v>441</v>
       </c>
     </row>
-    <row spans="1:1" r="180">
-      <c t="s" r="A180">
+    <row r="182" spans="1:1">
+      <c t="s" r="A182">
         <v>439</v>
       </c>
     </row>
-    <row spans="1:1" r="181">
-      <c t="s" r="A181">
-        <v>442</v>
-      </c>
-    </row>
-    <row spans="1:1" r="182">
-      <c t="s" r="A182">
-        <v>440</v>
-      </c>
-    </row>
-    <row spans="1:1" r="183">
+    <row r="183" spans="1:1">
       <c t="s" r="A183">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" right="0.75" left="0.75" top="1" footer="0.5" header="0.5"/>
+  <pageMargins header="0.5" bottom="1" right="0.75" top="1" footer="0.5" left="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
@@ -2853,1272 +2850,1272 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <sheetData>
-    <row spans="1:1" r="1">
+    <row r="1" spans="1:1">
       <c t="s" r="A1">
         <v>0</v>
       </c>
     </row>
-    <row spans="1:1" r="2">
+    <row r="2" spans="1:1">
       <c t="s" r="A2">
         <v>1</v>
       </c>
     </row>
-    <row spans="1:1" r="3">
+    <row r="3" spans="1:1">
       <c t="s" r="A3">
         <v>2</v>
       </c>
     </row>
-    <row spans="1:1" r="4">
+    <row r="4" spans="1:1">
       <c t="s" r="A4">
         <v>3</v>
       </c>
     </row>
-    <row spans="1:1" r="5">
+    <row r="5" spans="1:1">
       <c t="s" r="A5">
         <v>4</v>
       </c>
     </row>
-    <row spans="1:1" r="6">
+    <row r="6" spans="1:1">
       <c t="s" r="A6">
         <v>5</v>
       </c>
     </row>
-    <row spans="1:1" r="7">
+    <row r="7" spans="1:1">
       <c t="s" r="A7">
         <v>6</v>
       </c>
     </row>
-    <row spans="1:1" r="8">
+    <row r="8" spans="1:1">
       <c t="s" r="A8">
         <v>7</v>
       </c>
     </row>
-    <row spans="1:1" r="9">
+    <row r="9" spans="1:1">
       <c t="s" r="A9">
         <v>8</v>
       </c>
     </row>
-    <row spans="1:1" r="10">
+    <row r="10" spans="1:1">
       <c t="s" r="A10">
         <v>9</v>
       </c>
     </row>
-    <row spans="1:1" r="11">
+    <row r="11" spans="1:1">
       <c t="s" r="A11">
         <v>10</v>
       </c>
     </row>
-    <row spans="1:1" r="12">
+    <row r="12" spans="1:1">
       <c t="s" r="A12">
         <v>12</v>
       </c>
     </row>
-    <row spans="1:1" r="13">
+    <row r="13" spans="1:1">
       <c t="s" r="A13">
         <v>13</v>
       </c>
     </row>
-    <row spans="1:1" r="14">
+    <row r="14" spans="1:1">
       <c t="s" r="A14">
         <v>14</v>
       </c>
     </row>
-    <row spans="1:1" r="15">
+    <row r="15" spans="1:1">
       <c t="s" r="A15">
         <v>15</v>
       </c>
     </row>
-    <row spans="1:1" r="16">
+    <row r="16" spans="1:1">
       <c t="s" r="A16">
         <v>16</v>
       </c>
     </row>
-    <row spans="1:1" r="17">
+    <row r="17" spans="1:1">
       <c t="s" r="A17">
         <v>69</v>
       </c>
     </row>
-    <row spans="1:1" r="18">
+    <row r="18" spans="1:1">
       <c t="s" r="A18">
         <v>70</v>
       </c>
     </row>
-    <row spans="1:1" r="19">
+    <row r="19" spans="1:1">
       <c t="s" r="A19">
         <v>71</v>
       </c>
     </row>
-    <row spans="1:1" r="20">
+    <row r="20" spans="1:1">
       <c t="s" r="A20">
         <v>72</v>
       </c>
     </row>
-    <row spans="1:1" r="21">
+    <row r="21" spans="1:1">
       <c t="s" r="A21">
         <v>73</v>
       </c>
     </row>
-    <row spans="1:1" r="22">
+    <row r="22" spans="1:1">
       <c t="s" r="A22">
         <v>74</v>
       </c>
     </row>
-    <row spans="1:1" r="23">
+    <row r="23" spans="1:1">
       <c t="s" r="A23">
         <v>75</v>
       </c>
     </row>
-    <row spans="1:1" r="24">
+    <row r="24" spans="1:1">
       <c t="s" r="A24">
         <v>76</v>
       </c>
     </row>
-    <row spans="1:1" r="25">
+    <row r="25" spans="1:1">
       <c t="s" r="A25">
         <v>77</v>
       </c>
     </row>
-    <row spans="1:1" r="26">
+    <row r="26" spans="1:1">
       <c t="s" r="A26">
         <v>78</v>
       </c>
     </row>
-    <row spans="1:1" r="27">
+    <row r="27" spans="1:1">
       <c t="s" r="A27">
         <v>79</v>
       </c>
     </row>
-    <row spans="1:1" r="28">
+    <row r="28" spans="1:1">
       <c t="s" r="A28">
         <v>80</v>
       </c>
     </row>
-    <row spans="1:1" r="29">
+    <row r="29" spans="1:1">
       <c t="s" r="A29">
         <v>81</v>
       </c>
     </row>
-    <row spans="1:1" r="30">
+    <row r="30" spans="1:1">
       <c t="s" r="A30">
         <v>82</v>
       </c>
     </row>
-    <row spans="1:1" r="31">
+    <row r="31" spans="1:1">
       <c t="s" r="A31">
         <v>83</v>
       </c>
     </row>
-    <row spans="1:1" r="32">
+    <row r="32" spans="1:1">
       <c t="s" r="A32">
         <v>84</v>
       </c>
     </row>
-    <row spans="1:1" r="33">
+    <row r="33" spans="1:1">
       <c t="s" r="A33">
         <v>85</v>
       </c>
     </row>
-    <row spans="1:1" r="34">
+    <row r="34" spans="1:1">
       <c t="s" r="A34">
         <v>86</v>
       </c>
     </row>
-    <row spans="1:1" r="35">
+    <row r="35" spans="1:1">
       <c t="s" r="A35">
         <v>87</v>
       </c>
     </row>
-    <row spans="1:1" r="36">
+    <row r="36" spans="1:1">
       <c t="s" r="A36">
         <v>93</v>
       </c>
     </row>
-    <row spans="1:1" r="37">
+    <row r="37" spans="1:1">
       <c t="s" r="A37">
         <v>94</v>
       </c>
     </row>
-    <row spans="1:1" r="38">
+    <row r="38" spans="1:1">
       <c t="s" r="A38">
         <v>95</v>
       </c>
     </row>
-    <row spans="1:1" r="39">
+    <row r="39" spans="1:1">
       <c t="s" r="A39">
         <v>96</v>
       </c>
     </row>
-    <row spans="1:1" r="40">
+    <row r="40" spans="1:1">
       <c t="s" r="A40">
         <v>97</v>
       </c>
     </row>
-    <row spans="1:1" r="41">
+    <row r="41" spans="1:1">
       <c t="s" r="A41">
         <v>98</v>
       </c>
     </row>
-    <row spans="1:1" r="42">
+    <row r="42" spans="1:1">
       <c t="s" r="A42">
         <v>102</v>
       </c>
     </row>
-    <row spans="1:1" r="43">
+    <row r="43" spans="1:1">
       <c t="s" r="A43">
         <v>103</v>
       </c>
     </row>
-    <row spans="1:1" r="44">
+    <row r="44" spans="1:1">
       <c t="s" r="A44">
         <v>104</v>
       </c>
     </row>
-    <row spans="1:1" r="45">
+    <row r="45" spans="1:1">
       <c t="s" r="A45">
         <v>105</v>
       </c>
     </row>
-    <row spans="1:1" r="46">
+    <row r="46" spans="1:1">
       <c t="s" r="A46">
         <v>106</v>
       </c>
     </row>
-    <row spans="1:1" r="47">
+    <row r="47" spans="1:1">
       <c t="s" r="A47">
         <v>108</v>
       </c>
     </row>
-    <row spans="1:1" r="48">
+    <row r="48" spans="1:1">
       <c t="s" r="A48">
         <v>109</v>
       </c>
     </row>
-    <row spans="1:1" r="49">
+    <row r="49" spans="1:1">
       <c t="s" r="A49">
         <v>110</v>
       </c>
     </row>
-    <row spans="1:1" r="50">
+    <row r="50" spans="1:1">
       <c t="s" r="A50">
         <v>111</v>
       </c>
     </row>
-    <row spans="1:1" r="51">
+    <row r="51" spans="1:1">
       <c t="s" r="A51">
         <v>112</v>
       </c>
     </row>
-    <row spans="1:1" r="52">
+    <row r="52" spans="1:1">
       <c t="s" r="A52">
         <v>113</v>
       </c>
     </row>
-    <row spans="1:1" r="53">
+    <row r="53" spans="1:1">
       <c t="s" r="A53">
         <v>114</v>
       </c>
     </row>
-    <row spans="1:1" r="54">
+    <row r="54" spans="1:1">
       <c t="s" r="A54">
         <v>130</v>
       </c>
     </row>
-    <row spans="1:1" r="55">
+    <row r="55" spans="1:1">
       <c t="s" r="A55">
         <v>131</v>
       </c>
     </row>
-    <row spans="1:1" r="56">
+    <row r="56" spans="1:1">
       <c t="s" r="A56">
         <v>132</v>
       </c>
     </row>
-    <row spans="1:1" r="57">
+    <row r="57" spans="1:1">
       <c t="s" r="A57">
         <v>133</v>
       </c>
     </row>
-    <row spans="1:1" r="58">
+    <row r="58" spans="1:1">
       <c t="s" r="A58">
         <v>134</v>
       </c>
     </row>
-    <row spans="1:1" r="59">
+    <row r="59" spans="1:1">
       <c t="s" r="A59">
         <v>135</v>
       </c>
     </row>
-    <row spans="1:1" r="60">
+    <row r="60" spans="1:1">
       <c t="s" r="A60">
         <v>138</v>
       </c>
     </row>
-    <row spans="1:1" r="61">
+    <row r="61" spans="1:1">
       <c t="s" r="A61">
         <v>140</v>
       </c>
     </row>
-    <row spans="1:1" r="62">
+    <row r="62" spans="1:1">
       <c t="s" r="A62">
         <v>141</v>
       </c>
     </row>
-    <row spans="1:1" r="63">
+    <row r="63" spans="1:1">
       <c t="s" r="A63">
         <v>142</v>
       </c>
     </row>
-    <row spans="1:1" r="64">
+    <row r="64" spans="1:1">
       <c t="s" r="A64">
         <v>143</v>
       </c>
     </row>
-    <row spans="1:1" r="65">
+    <row r="65" spans="1:1">
       <c t="s" r="A65">
         <v>144</v>
       </c>
     </row>
-    <row spans="1:1" r="66">
+    <row r="66" spans="1:1">
       <c t="s" r="A66">
         <v>145</v>
       </c>
     </row>
-    <row spans="1:1" r="67">
+    <row r="67" spans="1:1">
       <c t="s" r="A67">
         <v>155</v>
       </c>
     </row>
-    <row spans="1:1" r="68">
+    <row r="68" spans="1:1">
       <c t="s" r="A68">
         <v>156</v>
       </c>
     </row>
-    <row spans="1:1" r="69">
+    <row r="69" spans="1:1">
       <c t="s" r="A69">
         <v>157</v>
       </c>
     </row>
-    <row spans="1:1" r="70">
+    <row r="70" spans="1:1">
       <c t="s" r="A70">
         <v>158</v>
       </c>
     </row>
-    <row spans="1:1" r="71">
+    <row r="71" spans="1:1">
       <c t="s" r="A71">
         <v>159</v>
       </c>
     </row>
-    <row spans="1:1" r="72">
+    <row r="72" spans="1:1">
       <c t="s" r="A72">
         <v>160</v>
       </c>
     </row>
-    <row spans="1:1" r="73">
+    <row r="73" spans="1:1">
       <c t="s" r="A73">
         <v>161</v>
       </c>
     </row>
-    <row spans="1:1" r="74">
+    <row r="74" spans="1:1">
       <c t="s" r="A74">
         <v>165</v>
       </c>
     </row>
-    <row spans="1:1" r="75">
+    <row r="75" spans="1:1">
       <c t="s" r="A75">
         <v>166</v>
       </c>
     </row>
-    <row spans="1:1" r="76">
+    <row r="76" spans="1:1">
       <c t="s" r="A76">
         <v>167</v>
       </c>
     </row>
-    <row spans="1:1" r="77">
+    <row r="77" spans="1:1">
       <c t="s" r="A77">
         <v>168</v>
       </c>
     </row>
-    <row spans="1:1" r="78">
+    <row r="78" spans="1:1">
       <c t="s" r="A78">
         <v>169</v>
       </c>
     </row>
-    <row spans="1:1" r="79">
+    <row r="79" spans="1:1">
       <c t="s" r="A79">
         <v>170</v>
       </c>
     </row>
-    <row spans="1:1" r="80">
+    <row r="80" spans="1:1">
       <c t="s" r="A80">
         <v>171</v>
       </c>
     </row>
-    <row spans="1:1" r="81">
+    <row r="81" spans="1:1">
       <c t="s" r="A81">
         <v>172</v>
       </c>
     </row>
-    <row spans="1:1" r="82">
+    <row r="82" spans="1:1">
       <c t="s" r="A82">
         <v>173</v>
       </c>
     </row>
-    <row spans="1:1" r="83">
+    <row r="83" spans="1:1">
       <c t="s" r="A83">
         <v>174</v>
       </c>
     </row>
-    <row spans="1:1" r="84">
+    <row r="84" spans="1:1">
       <c t="s" r="A84">
         <v>176</v>
       </c>
     </row>
-    <row spans="1:1" r="85">
+    <row r="85" spans="1:1">
       <c t="s" r="A85">
         <v>177</v>
       </c>
     </row>
-    <row spans="1:1" r="86">
+    <row r="86" spans="1:1">
       <c t="s" r="A86">
         <v>178</v>
       </c>
     </row>
-    <row spans="1:1" r="87">
+    <row r="87" spans="1:1">
       <c t="s" r="A87">
         <v>179</v>
       </c>
     </row>
-    <row spans="1:1" r="88">
+    <row r="88" spans="1:1">
       <c t="s" r="A88">
         <v>180</v>
       </c>
     </row>
-    <row spans="1:1" r="89">
+    <row r="89" spans="1:1">
       <c t="s" r="A89">
         <v>181</v>
       </c>
     </row>
-    <row spans="1:1" r="90">
+    <row r="90" spans="1:1">
       <c t="s" r="A90">
         <v>182</v>
       </c>
     </row>
-    <row spans="1:1" r="91">
+    <row r="91" spans="1:1">
       <c t="s" r="A91">
         <v>183</v>
       </c>
     </row>
-    <row spans="1:1" r="92">
+    <row r="92" spans="1:1">
       <c t="s" r="A92">
         <v>191</v>
       </c>
     </row>
-    <row spans="1:1" r="93">
+    <row r="93" spans="1:1">
       <c t="s" r="A93">
         <v>192</v>
       </c>
     </row>
-    <row spans="1:1" r="94">
+    <row r="94" spans="1:1">
       <c t="s" r="A94">
         <v>193</v>
       </c>
     </row>
-    <row spans="1:1" r="95">
+    <row r="95" spans="1:1">
       <c t="s" r="A95">
         <v>194</v>
       </c>
     </row>
-    <row spans="1:1" r="96">
+    <row r="96" spans="1:1">
       <c t="s" r="A96">
         <v>195</v>
       </c>
     </row>
-    <row spans="1:1" r="97">
+    <row r="97" spans="1:1">
       <c t="s" r="A97">
         <v>197</v>
       </c>
     </row>
-    <row spans="1:1" r="98">
+    <row r="98" spans="1:1">
       <c t="s" r="A98">
         <v>198</v>
       </c>
     </row>
-    <row spans="1:1" r="99">
+    <row r="99" spans="1:1">
       <c t="s" r="A99">
         <v>199</v>
       </c>
     </row>
-    <row spans="1:1" r="100">
+    <row r="100" spans="1:1">
       <c t="s" r="A100">
         <v>200</v>
       </c>
     </row>
-    <row spans="1:1" r="101">
+    <row r="101" spans="1:1">
       <c t="s" r="A101">
         <v>201</v>
       </c>
     </row>
-    <row spans="1:1" r="102">
+    <row r="102" spans="1:1">
       <c t="s" r="A102">
         <v>203</v>
       </c>
     </row>
-    <row spans="1:1" r="103">
+    <row r="103" spans="1:1">
       <c t="s" r="A103">
         <v>204</v>
       </c>
     </row>
-    <row spans="1:1" r="104">
+    <row r="104" spans="1:1">
       <c t="s" r="A104">
         <v>205</v>
       </c>
     </row>
-    <row spans="1:1" r="105">
+    <row r="105" spans="1:1">
       <c t="s" r="A105">
         <v>206</v>
       </c>
     </row>
-    <row spans="1:1" r="106">
+    <row r="106" spans="1:1">
       <c t="s" r="A106">
         <v>207</v>
       </c>
     </row>
-    <row spans="1:1" r="107">
+    <row r="107" spans="1:1">
       <c t="s" r="A107">
         <v>225</v>
       </c>
     </row>
-    <row spans="1:1" r="108">
+    <row r="108" spans="1:1">
       <c t="s" r="A108">
         <v>226</v>
       </c>
     </row>
-    <row spans="1:1" r="109">
+    <row r="109" spans="1:1">
       <c t="s" r="A109">
         <v>227</v>
       </c>
     </row>
-    <row spans="1:1" r="110">
+    <row r="110" spans="1:1">
       <c t="s" r="A110">
         <v>228</v>
       </c>
     </row>
-    <row spans="1:1" r="111">
+    <row r="111" spans="1:1">
       <c t="s" r="A111">
         <v>229</v>
       </c>
     </row>
-    <row spans="1:1" r="112">
+    <row r="112" spans="1:1">
       <c t="s" r="A112">
         <v>230</v>
       </c>
     </row>
-    <row spans="1:1" r="113">
+    <row r="113" spans="1:1">
       <c t="s" r="A113">
         <v>231</v>
       </c>
     </row>
-    <row spans="1:1" r="114">
+    <row r="114" spans="1:1">
       <c t="s" r="A114">
         <v>232</v>
       </c>
     </row>
-    <row spans="1:1" r="115">
+    <row r="115" spans="1:1">
       <c t="s" r="A115">
         <v>233</v>
       </c>
     </row>
-    <row spans="1:1" r="116">
+    <row r="116" spans="1:1">
       <c t="s" r="A116">
         <v>234</v>
       </c>
     </row>
-    <row spans="1:1" r="117">
+    <row r="117" spans="1:1">
       <c t="s" r="A117">
         <v>235</v>
       </c>
     </row>
-    <row spans="1:1" r="118">
+    <row r="118" spans="1:1">
       <c t="s" r="A118">
         <v>236</v>
       </c>
     </row>
-    <row spans="1:1" r="119">
+    <row r="119" spans="1:1">
       <c t="s" r="A119">
         <v>237</v>
       </c>
     </row>
-    <row spans="1:1" r="120">
+    <row r="120" spans="1:1">
       <c t="s" r="A120">
         <v>238</v>
       </c>
     </row>
-    <row spans="1:1" r="121">
+    <row r="121" spans="1:1">
       <c t="s" r="A121">
         <v>242</v>
       </c>
     </row>
-    <row spans="1:1" r="122">
+    <row r="122" spans="1:1">
       <c t="s" r="A122">
         <v>243</v>
       </c>
     </row>
-    <row spans="1:1" r="123">
+    <row r="123" spans="1:1">
       <c t="s" r="A123">
         <v>244</v>
       </c>
     </row>
-    <row spans="1:1" r="124">
+    <row r="124" spans="1:1">
       <c t="s" r="A124">
         <v>245</v>
       </c>
     </row>
-    <row spans="1:1" r="125">
+    <row r="125" spans="1:1">
       <c t="s" r="A125">
         <v>246</v>
       </c>
     </row>
-    <row spans="1:1" r="126">
+    <row r="126" spans="1:1">
       <c t="s" r="A126">
         <v>247</v>
       </c>
     </row>
-    <row spans="1:1" r="127">
+    <row r="127" spans="1:1">
       <c t="s" r="A127">
         <v>248</v>
       </c>
     </row>
-    <row spans="1:1" r="128">
+    <row r="128" spans="1:1">
       <c t="s" r="A128">
         <v>249</v>
       </c>
     </row>
-    <row spans="1:1" r="129">
+    <row r="129" spans="1:1">
       <c t="s" r="A129">
         <v>250</v>
       </c>
     </row>
-    <row spans="1:1" r="130">
+    <row r="130" spans="1:1">
       <c t="s" r="A130">
         <v>251</v>
       </c>
     </row>
-    <row spans="1:1" r="131">
+    <row r="131" spans="1:1">
       <c t="s" r="A131">
         <v>252</v>
       </c>
     </row>
-    <row spans="1:1" r="132">
+    <row r="132" spans="1:1">
       <c t="s" r="A132">
         <v>257</v>
       </c>
     </row>
-    <row spans="1:1" r="133">
+    <row r="133" spans="1:1">
       <c t="s" r="A133">
         <v>258</v>
       </c>
     </row>
-    <row spans="1:1" r="134">
+    <row r="134" spans="1:1">
       <c t="s" r="A134">
         <v>259</v>
       </c>
     </row>
-    <row spans="1:1" r="135">
+    <row r="135" spans="1:1">
       <c t="s" r="A135">
         <v>260</v>
       </c>
     </row>
-    <row spans="1:1" r="136">
+    <row r="136" spans="1:1">
       <c t="s" r="A136">
         <v>261</v>
       </c>
     </row>
-    <row spans="1:1" r="137">
+    <row r="137" spans="1:1">
       <c t="s" r="A137">
         <v>263</v>
       </c>
     </row>
-    <row spans="1:1" r="138">
+    <row r="138" spans="1:1">
       <c t="s" r="A138">
         <v>264</v>
       </c>
     </row>
-    <row spans="1:1" r="139">
+    <row r="139" spans="1:1">
       <c t="s" r="A139">
         <v>265</v>
       </c>
     </row>
-    <row spans="1:1" r="140">
+    <row r="140" spans="1:1">
       <c t="s" r="A140">
         <v>266</v>
       </c>
     </row>
-    <row spans="1:1" r="141">
+    <row r="141" spans="1:1">
       <c t="s" r="A141">
         <v>267</v>
       </c>
     </row>
-    <row spans="1:1" r="142">
+    <row r="142" spans="1:1">
       <c t="s" r="A142">
         <v>268</v>
       </c>
     </row>
-    <row spans="1:1" r="143">
+    <row r="143" spans="1:1">
       <c t="s" r="A143">
         <v>269</v>
       </c>
     </row>
-    <row spans="1:1" r="144">
+    <row r="144" spans="1:1">
       <c t="s" r="A144">
         <v>270</v>
       </c>
     </row>
-    <row spans="1:1" r="145">
+    <row r="145" spans="1:1">
       <c t="s" r="A145">
         <v>271</v>
       </c>
     </row>
-    <row spans="1:1" r="146">
+    <row r="146" spans="1:1">
       <c t="s" r="A146">
         <v>272</v>
       </c>
     </row>
-    <row spans="1:1" r="147">
+    <row r="147" spans="1:1">
       <c t="s" r="A147">
         <v>273</v>
       </c>
     </row>
-    <row spans="1:1" r="148">
+    <row r="148" spans="1:1">
       <c t="s" r="A148">
         <v>274</v>
       </c>
     </row>
-    <row spans="1:1" r="149">
+    <row r="149" spans="1:1">
       <c t="s" r="A149">
         <v>275</v>
       </c>
     </row>
-    <row spans="1:1" r="150">
+    <row r="150" spans="1:1">
       <c t="s" r="A150">
         <v>276</v>
       </c>
     </row>
-    <row spans="1:1" r="151">
+    <row r="151" spans="1:1">
       <c t="s" r="A151">
         <v>277</v>
       </c>
     </row>
-    <row spans="1:1" r="152">
+    <row r="152" spans="1:1">
       <c t="s" r="A152">
         <v>278</v>
       </c>
     </row>
-    <row spans="1:1" r="153">
+    <row r="153" spans="1:1">
       <c t="s" r="A153">
         <v>280</v>
       </c>
     </row>
-    <row spans="1:1" r="154">
+    <row r="154" spans="1:1">
       <c t="s" r="A154">
         <v>282</v>
       </c>
     </row>
-    <row spans="1:1" r="155">
+    <row r="155" spans="1:1">
       <c t="s" r="A155">
         <v>283</v>
       </c>
     </row>
-    <row spans="1:1" r="156">
+    <row r="156" spans="1:1">
       <c t="s" r="A156">
         <v>285</v>
       </c>
     </row>
-    <row spans="1:1" r="157">
+    <row r="157" spans="1:1">
       <c t="s" r="A157">
         <v>286</v>
       </c>
     </row>
-    <row spans="1:1" r="158">
+    <row r="158" spans="1:1">
       <c t="s" r="A158">
         <v>287</v>
       </c>
     </row>
-    <row spans="1:1" r="159">
+    <row r="159" spans="1:1">
       <c t="s" r="A159">
         <v>288</v>
       </c>
     </row>
-    <row spans="1:1" r="160">
+    <row r="160" spans="1:1">
       <c t="s" r="A160">
         <v>289</v>
       </c>
     </row>
-    <row spans="1:1" r="161">
+    <row r="161" spans="1:1">
       <c t="s" r="A161">
         <v>290</v>
       </c>
     </row>
-    <row spans="1:1" r="162">
+    <row r="162" spans="1:1">
       <c t="s" r="A162">
         <v>291</v>
       </c>
     </row>
-    <row spans="1:1" r="163">
+    <row r="163" spans="1:1">
       <c t="s" r="A163">
         <v>292</v>
       </c>
     </row>
-    <row spans="1:1" r="164">
+    <row r="164" spans="1:1">
       <c t="s" r="A164">
         <v>293</v>
       </c>
     </row>
-    <row spans="1:1" r="165">
+    <row r="165" spans="1:1">
       <c t="s" r="A165">
         <v>294</v>
       </c>
     </row>
-    <row spans="1:1" r="166">
+    <row r="166" spans="1:1">
       <c t="s" r="A166">
-        <v>318</v>
-      </c>
-    </row>
-    <row spans="1:1" r="167">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
       <c t="s" r="A167">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c t="s" r="A168">
         <v>323</v>
       </c>
     </row>
-    <row spans="1:1" r="168">
-      <c t="s" r="A168">
+    <row r="169" spans="1:1">
+      <c t="s" r="A169">
         <v>324</v>
       </c>
     </row>
-    <row spans="1:1" r="169">
-      <c t="s" r="A169">
+    <row r="170" spans="1:1">
+      <c t="s" r="A170">
         <v>325</v>
       </c>
     </row>
-    <row spans="1:1" r="170">
-      <c t="s" r="A170">
+    <row r="171" spans="1:1">
+      <c t="s" r="A171">
         <v>326</v>
       </c>
     </row>
-    <row spans="1:1" r="171">
-      <c t="s" r="A171">
+    <row r="172" spans="1:1">
+      <c t="s" r="A172">
         <v>327</v>
       </c>
     </row>
-    <row spans="1:1" r="172">
-      <c t="s" r="A172">
+    <row r="173" spans="1:1">
+      <c t="s" r="A173">
         <v>328</v>
       </c>
     </row>
-    <row spans="1:1" r="173">
-      <c t="s" r="A173">
+    <row r="174" spans="1:1">
+      <c t="s" r="A174">
         <v>329</v>
       </c>
     </row>
-    <row spans="1:1" r="174">
-      <c t="s" r="A174">
+    <row r="175" spans="1:1">
+      <c t="s" r="A175">
         <v>330</v>
       </c>
     </row>
-    <row spans="1:1" r="175">
-      <c t="s" r="A175">
+    <row r="176" spans="1:1">
+      <c t="s" r="A176">
         <v>331</v>
       </c>
     </row>
-    <row spans="1:1" r="176">
-      <c t="s" r="A176">
+    <row r="177" spans="1:1">
+      <c t="s" r="A177">
         <v>332</v>
       </c>
     </row>
-    <row spans="1:1" r="177">
-      <c t="s" r="A177">
+    <row r="178" spans="1:1">
+      <c t="s" r="A178">
         <v>333</v>
       </c>
     </row>
-    <row spans="1:1" r="178">
-      <c t="s" r="A178">
+    <row r="179" spans="1:1">
+      <c t="s" r="A179">
         <v>334</v>
       </c>
     </row>
-    <row spans="1:1" r="179">
-      <c t="s" r="A179">
-        <v>335</v>
-      </c>
-    </row>
-    <row spans="1:1" r="180">
+    <row r="180" spans="1:1">
       <c t="s" r="A180">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c t="s" r="A181">
         <v>340</v>
       </c>
     </row>
-    <row spans="1:1" r="181">
-      <c t="s" r="A181">
+    <row r="182" spans="1:1">
+      <c t="s" r="A182">
         <v>341</v>
       </c>
     </row>
-    <row spans="1:1" r="182">
-      <c t="s" r="A182">
+    <row r="183" spans="1:1">
+      <c t="s" r="A183">
         <v>342</v>
       </c>
     </row>
-    <row spans="1:1" r="183">
-      <c t="s" r="A183">
+    <row r="184" spans="1:1">
+      <c t="s" r="A184">
         <v>343</v>
       </c>
     </row>
-    <row spans="1:1" r="184">
-      <c t="s" r="A184">
-        <v>344</v>
-      </c>
-    </row>
-    <row spans="1:1" r="185">
+    <row r="185" spans="1:1">
       <c t="s" r="A185">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c t="s" r="A186">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c t="s" r="A187">
         <v>361</v>
       </c>
     </row>
-    <row spans="1:1" r="186">
-      <c t="s" r="A186">
-        <v>381</v>
-      </c>
-    </row>
-    <row spans="1:1" r="187">
-      <c t="s" r="A187">
+    <row r="188" spans="1:1">
+      <c t="s" r="A188">
         <v>362</v>
       </c>
     </row>
-    <row spans="1:1" r="188">
-      <c t="s" r="A188">
+    <row r="189" spans="1:1">
+      <c t="s" r="A189">
         <v>363</v>
       </c>
     </row>
-    <row spans="1:1" r="189">
-      <c t="s" r="A189">
+    <row r="190" spans="1:1">
+      <c t="s" r="A190">
         <v>364</v>
       </c>
     </row>
-    <row spans="1:1" r="190">
-      <c t="s" r="A190">
+    <row r="191" spans="1:1">
+      <c t="s" r="A191">
         <v>365</v>
       </c>
     </row>
-    <row spans="1:1" r="191">
-      <c t="s" r="A191">
+    <row r="192" spans="1:1">
+      <c t="s" r="A192">
         <v>366</v>
       </c>
     </row>
-    <row spans="1:1" r="192">
-      <c t="s" r="A192">
+    <row r="193" spans="1:1">
+      <c t="s" r="A193">
         <v>367</v>
       </c>
     </row>
-    <row spans="1:1" r="193">
-      <c t="s" r="A193">
+    <row r="194" spans="1:1">
+      <c t="s" r="A194">
         <v>368</v>
       </c>
     </row>
-    <row spans="1:1" r="194">
-      <c t="s" r="A194">
+    <row r="195" spans="1:1">
+      <c t="s" r="A195">
         <v>369</v>
       </c>
     </row>
-    <row spans="1:1" r="195">
-      <c t="s" r="A195">
+    <row r="196" spans="1:1">
+      <c t="s" r="A196">
         <v>370</v>
       </c>
     </row>
-    <row spans="1:1" r="196">
-      <c t="s" r="A196">
+    <row r="197" spans="1:1">
+      <c t="s" r="A197">
         <v>371</v>
       </c>
     </row>
-    <row spans="1:1" r="197">
-      <c t="s" r="A197">
+    <row r="198" spans="1:1">
+      <c t="s" r="A198">
         <v>372</v>
       </c>
     </row>
-    <row spans="1:1" r="198">
-      <c t="s" r="A198">
+    <row r="199" spans="1:1">
+      <c t="s" r="A199">
         <v>373</v>
       </c>
     </row>
-    <row spans="1:1" r="199">
-      <c t="s" r="A199">
+    <row r="200" spans="1:1">
+      <c t="s" r="A200">
         <v>374</v>
       </c>
     </row>
-    <row spans="1:1" r="200">
-      <c t="s" r="A200">
+    <row r="201" spans="1:1">
+      <c t="s" r="A201">
         <v>375</v>
       </c>
     </row>
-    <row spans="1:1" r="201">
-      <c t="s" r="A201">
+    <row r="202" spans="1:1">
+      <c t="s" r="A202">
         <v>376</v>
       </c>
     </row>
-    <row spans="1:1" r="202">
-      <c t="s" r="A202">
+    <row r="203" spans="1:1">
+      <c t="s" r="A203">
         <v>377</v>
       </c>
     </row>
-    <row spans="1:1" r="203">
-      <c t="s" r="A203">
+    <row r="204" spans="1:1">
+      <c t="s" r="A204">
         <v>378</v>
       </c>
     </row>
-    <row spans="1:1" r="204">
-      <c t="s" r="A204">
-        <v>379</v>
-      </c>
-    </row>
-    <row spans="1:1" r="205">
+    <row r="205" spans="1:1">
       <c t="s" r="A205">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c t="s" r="A206">
         <v>396</v>
       </c>
     </row>
-    <row spans="1:1" r="206">
-      <c t="s" r="A206">
+    <row r="207" spans="1:1">
+      <c t="s" r="A207">
         <v>397</v>
       </c>
     </row>
-    <row spans="1:1" r="207">
-      <c t="s" r="A207">
+    <row r="208" spans="1:1">
+      <c t="s" r="A208">
         <v>398</v>
       </c>
     </row>
-    <row spans="1:1" r="208">
-      <c t="s" r="A208">
+    <row r="209" spans="1:1">
+      <c t="s" r="A209">
         <v>399</v>
       </c>
     </row>
-    <row spans="1:1" r="209">
-      <c t="s" r="A209">
+    <row r="210" spans="1:1">
+      <c t="s" r="A210">
         <v>400</v>
       </c>
     </row>
-    <row spans="1:1" r="210">
-      <c t="s" r="A210">
+    <row r="211" spans="1:1">
+      <c t="s" r="A211">
         <v>401</v>
       </c>
     </row>
-    <row spans="1:1" r="211">
-      <c t="s" r="A211">
-        <v>402</v>
-      </c>
-    </row>
-    <row spans="1:1" r="212">
+    <row r="212" spans="1:1">
       <c t="s" r="A212">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c t="s" r="A213">
         <v>404</v>
       </c>
     </row>
-    <row spans="1:1" r="213">
-      <c t="s" r="A213">
+    <row r="214" spans="1:1">
+      <c t="s" r="A214">
         <v>405</v>
       </c>
     </row>
-    <row spans="1:1" r="214">
-      <c t="s" r="A214">
+    <row r="215" spans="1:1">
+      <c t="s" r="A215">
         <v>406</v>
       </c>
     </row>
-    <row spans="1:1" r="215">
-      <c t="s" r="A215">
+    <row r="216" spans="1:1">
+      <c t="s" r="A216">
         <v>407</v>
       </c>
     </row>
-    <row spans="1:1" r="216">
-      <c t="s" r="A216">
+    <row r="217" spans="1:1">
+      <c t="s" r="A217">
         <v>408</v>
       </c>
     </row>
-    <row spans="1:1" r="217">
-      <c t="s" r="A217">
+    <row r="218" spans="1:1">
+      <c t="s" r="A218">
         <v>409</v>
       </c>
     </row>
-    <row spans="1:1" r="218">
-      <c t="s" r="A218">
+    <row r="219" spans="1:1">
+      <c t="s" r="A219">
         <v>410</v>
       </c>
     </row>
-    <row spans="1:1" r="219">
-      <c t="s" r="A219">
+    <row r="220" spans="1:1">
+      <c t="s" r="A220">
         <v>411</v>
       </c>
     </row>
-    <row spans="1:1" r="220">
-      <c t="s" r="A220">
-        <v>412</v>
-      </c>
-    </row>
-    <row spans="1:1" r="221">
+    <row r="221" spans="1:1">
       <c t="s" r="A221">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c t="s" r="A222">
         <v>417</v>
       </c>
     </row>
-    <row spans="1:1" r="222">
-      <c t="s" r="A222">
+    <row r="223" spans="1:1">
+      <c t="s" r="A223">
         <v>418</v>
       </c>
     </row>
-    <row spans="1:1" r="223">
-      <c t="s" r="A223">
+    <row r="224" spans="1:1">
+      <c t="s" r="A224">
         <v>419</v>
       </c>
     </row>
-    <row spans="1:1" r="224">
-      <c t="s" r="A224">
-        <v>420</v>
-      </c>
-    </row>
-    <row spans="1:1" r="225">
+    <row r="225" spans="1:1">
       <c t="s" r="A225">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c t="s" r="A226">
         <v>422</v>
       </c>
     </row>
-    <row spans="1:1" r="226">
-      <c t="s" r="A226">
+    <row r="227" spans="1:1">
+      <c t="s" r="A227">
         <v>423</v>
       </c>
     </row>
-    <row spans="1:1" r="227">
-      <c t="s" r="A227">
-        <v>424</v>
-      </c>
-    </row>
-    <row spans="1:1" r="228">
+    <row r="228" spans="1:1">
       <c t="s" r="A228">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c t="s" r="A229">
         <v>429</v>
       </c>
     </row>
-    <row spans="1:1" r="229">
-      <c t="s" r="A229">
+    <row r="230" spans="1:1">
+      <c t="s" r="A230">
         <v>430</v>
       </c>
     </row>
-    <row spans="1:1" r="230">
-      <c t="s" r="A230">
+    <row r="231" spans="1:1">
+      <c t="s" r="A231">
         <v>431</v>
       </c>
     </row>
-    <row spans="1:1" r="231">
-      <c t="s" r="A231">
+    <row r="232" spans="1:1">
+      <c t="s" r="A232">
         <v>432</v>
       </c>
     </row>
-    <row spans="1:1" r="232">
-      <c t="s" r="A232">
+    <row r="233" spans="1:1">
+      <c t="s" r="A233">
         <v>433</v>
       </c>
     </row>
-    <row spans="1:1" r="233">
-      <c t="s" r="A233">
+    <row r="234" spans="1:1">
+      <c t="s" r="A234">
         <v>434</v>
       </c>
     </row>
-    <row spans="1:1" r="234">
-      <c t="s" r="A234">
+    <row r="235" spans="1:1">
+      <c t="s" r="A235">
         <v>435</v>
       </c>
     </row>
-    <row spans="1:1" r="235">
-      <c t="s" r="A235">
+    <row r="236" spans="1:1">
+      <c t="s" r="A236">
         <v>436</v>
       </c>
     </row>
-    <row spans="1:1" r="236">
-      <c t="s" r="A236">
-        <v>437</v>
-      </c>
-    </row>
-    <row spans="1:1" r="237">
+    <row r="237" spans="1:1">
       <c t="s" r="A237">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c t="s" r="A238">
         <v>443</v>
       </c>
     </row>
-    <row spans="1:1" r="238">
-      <c t="s" r="A238">
+    <row r="239" spans="1:1">
+      <c t="s" r="A239">
         <v>444</v>
       </c>
     </row>
-    <row spans="1:1" r="239">
-      <c t="s" r="A239">
+    <row r="240" spans="1:1">
+      <c t="s" r="A240">
         <v>445</v>
       </c>
     </row>
-    <row spans="1:1" r="240">
-      <c t="s" r="A240">
+    <row r="241" spans="1:1">
+      <c t="s" r="A241">
         <v>446</v>
       </c>
     </row>
-    <row spans="1:1" r="241">
-      <c t="s" r="A241">
+    <row r="242" spans="1:1">
+      <c t="s" r="A242">
         <v>447</v>
       </c>
     </row>
-    <row spans="1:1" r="242">
-      <c t="s" r="A242">
+    <row r="243" spans="1:1">
+      <c t="s" r="A243">
         <v>448</v>
       </c>
     </row>
-    <row spans="1:1" r="243">
-      <c t="s" r="A243">
-        <v>449</v>
-      </c>
-    </row>
-    <row spans="1:1" r="244">
+    <row r="244" spans="1:1">
       <c t="s" r="A244">
         <v>107</v>
       </c>
     </row>
-    <row spans="1:1" r="245">
+    <row r="245" spans="1:1">
       <c t="s" r="A245">
         <v>139</v>
       </c>
     </row>
-    <row spans="1:1" r="246">
+    <row r="246" spans="1:1">
       <c t="s" r="A246">
         <v>175</v>
       </c>
     </row>
-    <row spans="1:1" r="247">
+    <row r="247" spans="1:1">
       <c t="s" r="A247">
         <v>202</v>
       </c>
     </row>
-    <row spans="1:1" r="248">
+    <row r="248" spans="1:1">
       <c t="s" r="A248">
         <v>262</v>
       </c>
     </row>
-    <row spans="1:1" r="249">
+    <row r="249" spans="1:1">
       <c t="s" r="A249">
         <v>284</v>
       </c>
     </row>
-    <row spans="1:1" r="250">
+    <row r="250" spans="1:1">
       <c t="s" r="A250">
-        <v>319</v>
-      </c>
-    </row>
-    <row spans="1:1" r="251">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
       <c t="s" r="A251">
         <v>11</v>
       </c>
     </row>
-    <row spans="1:1" r="252">
+    <row r="252" spans="1:1">
       <c t="s" r="A252">
         <v>281</v>
       </c>
     </row>
-    <row spans="1:1" r="253">
+    <row r="253" spans="1:1">
       <c t="s" r="A253">
         <v>146</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" right="0.75" left="0.75" top="1" footer="0.5" header="0.5"/>
+  <pageMargins header="0.5" bottom="1" right="0.75" top="1" footer="0.5" left="0.75"/>
 </worksheet>
 </file>
--- a/Crawl_with_Class.xlsx
+++ b/Crawl_with_Class.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="499">
   <si>
     <t>AD = Andorra</t>
   </si>
@@ -71,6 +71,9 @@
     <t>AZ = Azerbaijan</t>
   </si>
   <si>
+    <t>About SAEON — SAEON</t>
+  </si>
+  <si>
     <t>Academia  Chilena de Ciencias, Chile</t>
   </si>
   <si>
@@ -131,6 +134,9 @@
     <t>Accademia  Nazionale dei Lincei, Italy</t>
   </si>
   <si>
+    <t>Activity,Community,Consensus Effort,Data Service,Portal</t>
+  </si>
+  <si>
     <t>Africa  Centre for Climate and Earth Systems Science</t>
   </si>
   <si>
@@ -203,6 +209,9 @@
     <t>Association of Ecosystem  Research Centers</t>
   </si>
   <si>
+    <t>Atmosphere, Biology, Climate, Ecology, Marine Ecology, Oceanography</t>
+  </si>
+  <si>
     <t>Australian  Academy of Science</t>
   </si>
   <si>
@@ -287,6 +296,9 @@
     <t>Bangladesh  Academy of Sciences</t>
   </si>
   <si>
+    <t>Biology, Ecology, Fisheries, Oceanography</t>
+  </si>
+  <si>
     <t>Botanical  Society of America</t>
   </si>
   <si>
@@ -317,15 +329,6 @@
     <t>CI = Cote D'Ivoire (Ivory Coast)</t>
   </si>
   <si>
-    <t>CINERGI Test Bed</t>
-  </si>
-  <si>
-    <t>CINERGI WEB CRAWLER sheet 1 - Home</t>
-  </si>
-  <si>
-    <t>CINERGI WEb crawler sheet 2 - Home</t>
-  </si>
-  <si>
     <t>CK = Cook Islands</t>
   </si>
   <si>
@@ -386,15 +389,36 @@
     <t>Canadian Meteorological and Oceanographic Society</t>
   </si>
   <si>
+    <t>Catalog</t>
+  </si>
+  <si>
     <t>Center  for International Forestry Research</t>
   </si>
   <si>
     <t>Chinese  Academy of Sciences</t>
   </si>
   <si>
+    <t>ChloroGIN Earth</t>
+  </si>
+  <si>
+    <t>Climate, Ecology</t>
+  </si>
+  <si>
+    <t>Climate, Geochemistry, Oceanography</t>
+  </si>
+  <si>
     <t>Commonwealth  Scientific and Industrial Research Organization (CSIRO) (Australia)</t>
   </si>
   <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Consensus Effort,Forum,Image Collection,Software</t>
+  </si>
+  <si>
+    <t>Consensus Effort,Image Collection</t>
+  </si>
+  <si>
     <t>Consultative  Group on International Agricultural Research</t>
   </si>
   <si>
@@ -428,6 +452,12 @@
     <t>DZ = Algeria</t>
   </si>
   <si>
+    <t>Data Service</t>
+  </si>
+  <si>
+    <t>Data Service,Software</t>
+  </si>
+  <si>
     <t>Delegation  of the Finnish Academies of Science and Letters</t>
   </si>
   <si>
@@ -455,6 +485,9 @@
     <t>ES = Spain</t>
   </si>
   <si>
+    <t>ESSDD - Special Issue - MAREDAT &amp;ndash; Towards a world atlas of marine plankton functional types</t>
+  </si>
+  <si>
     <t>ET = Ethiopia</t>
   </si>
   <si>
@@ -467,6 +500,12 @@
     <t>Ecological Society of America</t>
   </si>
   <si>
+    <t>Ecology, Oceanography</t>
+  </si>
+  <si>
+    <t>Ecology, Oceanography, Spatial</t>
+  </si>
+  <si>
     <t>Environmental Protection Agency</t>
   </si>
   <si>
@@ -482,6 +521,12 @@
     <t>European Academy of Sciences and  Arts</t>
   </si>
   <si>
+    <t>European Commission: CORDIS: FP7 : Home</t>
+  </si>
+  <si>
+    <t>European Commission: CORDIS: FP7:  : Environment</t>
+  </si>
+  <si>
     <t>European Federation of  Geologists</t>
   </si>
   <si>
@@ -509,9 +554,6 @@
     <t>Federation of American  Scientists</t>
   </si>
   <si>
-    <t>Free website | Free blog | Create a free website | Weebly</t>
-  </si>
-  <si>
     <t>French Academy of Sciences</t>
   </si>
   <si>
@@ -536,6 +578,9 @@
     <t>GI = Gibraltar</t>
   </si>
   <si>
+    <t>GIS and Mapping with Drupal (OpenLayers and Geo module) | Drupal Video</t>
+  </si>
+  <si>
     <t>GL = Greenland</t>
   </si>
   <si>
@@ -590,9 +635,6 @@
     <t>Ghana  Academy of Arts and Sciences</t>
   </si>
   <si>
-    <t>Google</t>
-  </si>
-  <si>
     <t>HK = Hong Kong</t>
   </si>
   <si>
@@ -626,6 +668,11 @@
     <t>IN = India</t>
   </si>
   <si>
+    <t xml:space="preserve">INSPIRE
+&gt; WELCOME TO INSPIRE 
+</t>
+  </si>
+  <si>
     <t>INT = International</t>
   </si>
   <si>
@@ -647,6 +694,9 @@
     <t>Indian National Science Academy</t>
   </si>
   <si>
+    <t>Indicators for the Seas | IndiSeas</t>
+  </si>
+  <si>
     <t>Institute  of Ecology and Environmental Management</t>
   </si>
   <si>
@@ -794,6 +844,9 @@
     <t>MA = Morocco</t>
   </si>
   <si>
+    <t>MAREMIP contributing models</t>
+  </si>
+  <si>
     <t>MC = Monaco</t>
   </si>
   <si>
@@ -857,6 +910,9 @@
     <t>MZ = Mozambique</t>
   </si>
   <si>
+    <t>Maps/Imagery, Spatial</t>
+  </si>
+  <si>
     <t>Montenegrin Academy  of Sciences and Arts</t>
   </si>
   <si>
@@ -968,27 +1024,48 @@
     <t>Nigerian  Academy of Sciences</t>
   </si>
   <si>
+    <t>No disciplines found</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>Norwegian Academy of Sciences and  Letters</t>
   </si>
   <si>
     <t>OM = Oman</t>
   </si>
   <si>
+    <t>OPeNDAP | OPeNDAP</t>
+  </si>
+  <si>
     <t>ORG = Non-Profit Organization</t>
   </si>
   <si>
+    <t>Oceanography</t>
+  </si>
+  <si>
     <t>Oklahoma Climatological Survey</t>
   </si>
   <si>
+    <t>Open Geospatial Consortium | OGC(R)</t>
+  </si>
+  <si>
     <t>Organization</t>
   </si>
   <si>
     <t>Organization  of Biological Field Stations</t>
   </si>
   <si>
+    <t>Organization not found</t>
+  </si>
+  <si>
     <t>PA = Panama</t>
   </si>
   <si>
+    <t>PANGAEA - Data Publisher for Earth &amp; Environmental Science - About / Imprint</t>
+  </si>
+  <si>
     <t>PE = Peru</t>
   </si>
   <si>
@@ -1034,6 +1111,9 @@
     <t>Pew  Center on Global Climate Change</t>
   </si>
   <si>
+    <t>Pilots | NETMAR</t>
+  </si>
+  <si>
     <t>Polish Academy of Sciences</t>
   </si>
   <si>
@@ -1157,9 +1237,6 @@
     <t>SZ = Swaziland</t>
   </si>
   <si>
-    <t>San Diego Supercomputer Center</t>
-  </si>
-  <si>
     <t>Sb = Solomon Islands</t>
   </si>
   <si>
@@ -1187,6 +1264,12 @@
     <t>Slovenian Academy of Sciences and Arts</t>
   </si>
   <si>
+    <t>Social Media Link</t>
+  </si>
+  <si>
+    <t>Social Media?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Society  of American Foresters  </t>
   </si>
   <si>
@@ -1202,6 +1285,15 @@
     <t>Society of Systematic Biologists</t>
   </si>
   <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Spatial</t>
+  </si>
+  <si>
+    <t>Standards and related web-information | GreenSeas</t>
+  </si>
+  <si>
     <t>Sudan Academy of Sciences</t>
   </si>
   <si>
@@ -1259,6 +1351,9 @@
     <t>Tanzania Academy of Sciences</t>
   </si>
   <si>
+    <t>Term Definitions</t>
+  </si>
+  <si>
     <t>The  Wildlife Society (international)</t>
   </si>
   <si>
@@ -1331,6 +1426,9 @@
     <t>WS = Samoa</t>
   </si>
   <si>
+    <t>Welcome to POGO</t>
+  </si>
+  <si>
     <t>Woods Hole Oceanographic Institution</t>
   </si>
   <si>
@@ -1370,22 +1468,52 @@
     <t>Zimbabwe  Academy of Sciences</t>
   </si>
   <si>
-    <t>http://cinergi.weebly.com/</t>
-  </si>
-  <si>
-    <t>http://cinergisheet1.weebly.com</t>
-  </si>
-  <si>
-    <t>http://cinergisheet2.weebly.com</t>
-  </si>
-  <si>
-    <t>http://google.com</t>
-  </si>
-  <si>
-    <t>http://www.sdsc.edu</t>
-  </si>
-  <si>
-    <t>http://www.weebly.com/?utm_source=internal&amp;utm_medium=footer&amp;utm_campaign=3</t>
+    <t>http://cf-pcmdi.llnl.gov/</t>
+  </si>
+  <si>
+    <t>http://cordis.europa.eu/fp7/</t>
+  </si>
+  <si>
+    <t>http://cordis.europa.eu/fp7/environment/home_en.html</t>
+  </si>
+  <si>
+    <t>http://inspire.jrc.ec.europa.eu/</t>
+  </si>
+  <si>
+    <t>http://lgmacweb.env.uea.ac.uk/maremip/models/models.shtml?r1</t>
+  </si>
+  <si>
+    <t>http://netmar.nersc.no/content/pilots</t>
+  </si>
+  <si>
+    <t>http://www.chlorogin.org/world/</t>
+  </si>
+  <si>
+    <t>http://www.earth-syst-sci-data-discuss.net/special_issue9.html</t>
+  </si>
+  <si>
+    <t>http://www.greenseas.eu/content/standards-and-related-web-information</t>
+  </si>
+  <si>
+    <t>http://www.indiseas.org/</t>
+  </si>
+  <si>
+    <t>http://www.ocean-partners.org/</t>
+  </si>
+  <si>
+    <t>http://www.opendap.org/</t>
+  </si>
+  <si>
+    <t>http://www.opengeospatial.org/</t>
+  </si>
+  <si>
+    <t>http://www.pangaea.de/about/</t>
+  </si>
+  <si>
+    <t>http://www.saeon.ac.za/about-saeon</t>
+  </si>
+  <si>
+    <t>http://yadadrop.com/drupal-video/gis-mapping-drupal-openlayers-geo</t>
   </si>
   <si>
     <t>l'Académie  des Sciences et Techniques du Sénégal</t>
@@ -1732,7 +1860,7 @@
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1740,125 +1868,351 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c t="s" s="1" r="A1">
-        <v>414</v>
-      </c>
-      <c t="s" s="1" r="B1">
-        <v>253</v>
-      </c>
-      <c t="s" s="1" r="C1">
-        <v>420</v>
-      </c>
-      <c t="s" s="1" r="D1">
-        <v>320</v>
-      </c>
-      <c t="s" s="1" r="E1">
-        <v>137</v>
-      </c>
-      <c t="s" s="1" r="F1">
-        <v>344</v>
-      </c>
-      <c t="s" s="1" r="G1">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s" s="1">
+        <v>445</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>451</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>343</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>147</v>
+      </c>
+      <c r="F1" t="s" s="1">
+        <v>370</v>
+      </c>
+      <c r="G1" t="s" s="1">
+        <v>134</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>432</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>135</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>415</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
         <v>126</v>
       </c>
-      <c t="s" s="1" r="H1">
-        <v>402</v>
-      </c>
-      <c t="s" s="1" r="I1">
+      <c r="C7" t="s">
+        <v>488</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" t="s">
+        <v>491</v>
+      </c>
+      <c r="D8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C9" t="s">
+        <v>492</v>
+      </c>
+      <c r="D9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D10" t="s">
+        <v>363</v>
+      </c>
+      <c r="E10" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c t="s" r="A2">
-        <v>99</v>
-      </c>
-      <c t="s" r="C2">
-        <v>450</v>
-      </c>
-      <c t="s" r="G2">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c t="s" r="A3">
-        <v>100</v>
-      </c>
-      <c t="s" r="C3">
-        <v>451</v>
-      </c>
-      <c t="s" r="G3">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c t="s" r="A4">
-        <v>101</v>
-      </c>
-      <c t="s" r="C4">
-        <v>452</v>
-      </c>
-      <c t="s" r="G4">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c t="s" r="A5">
-        <v>190</v>
-      </c>
-      <c t="s" r="C5">
-        <v>453</v>
-      </c>
-      <c t="s" r="G5">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c t="s" r="A6">
-        <v>379</v>
-      </c>
-      <c t="s" r="C6">
-        <v>454</v>
-      </c>
-      <c t="s" r="G6">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c t="s" r="A7">
-        <v>163</v>
-      </c>
-      <c t="s" r="C7">
-        <v>455</v>
-      </c>
-      <c t="s" r="G7">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c t="s" r="A8">
-        <v>163</v>
-      </c>
-      <c t="s" r="C8">
-        <v>455</v>
-      </c>
-      <c t="s" r="G8">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c t="s" r="A9">
-        <v>163</v>
-      </c>
-      <c t="s" r="C9">
-        <v>455</v>
-      </c>
-      <c t="s" r="G9">
-        <v>196</v>
+      <c r="F10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C11" t="s">
+        <v>494</v>
+      </c>
+      <c r="D11" t="s">
+        <v>342</v>
+      </c>
+      <c r="E11" t="s">
+        <v>422</v>
+      </c>
+      <c r="F11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" t="s">
+        <v>493</v>
+      </c>
+      <c r="D12" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" t="s">
+        <v>334</v>
+      </c>
+      <c r="F12" t="s">
+        <v>421</v>
+      </c>
+      <c r="G12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" t="s">
+        <v>485</v>
+      </c>
+      <c r="D13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="C14" t="s">
+        <v>482</v>
+      </c>
+      <c r="E14" t="s">
+        <v>334</v>
+      </c>
+      <c r="F14" t="s">
+        <v>335</v>
+      </c>
+      <c r="G14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" t="s">
+        <v>497</v>
+      </c>
+      <c r="D15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" t="s">
+        <v>296</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" t="s">
+        <v>483</v>
+      </c>
+      <c r="D16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" t="s">
+        <v>340</v>
+      </c>
+      <c r="F16" t="s">
+        <v>335</v>
+      </c>
+      <c r="G16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" t="s">
+        <v>484</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" t="s">
+        <v>335</v>
+      </c>
+      <c r="G17" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" bottom="1" right="0.75" top="1" footer="0.5" left="0.75"/>
+  <pageMargins header="0.5" right="0.75" left="0.75" bottom="1" footer="0.5" top="1"/>
 </worksheet>
 </file>
 
@@ -1867,7 +2221,7 @@
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1875,37 +2229,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c t="s" s="1" r="A1">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s" s="1">
+        <v>445</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>451</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>343</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>147</v>
+      </c>
+      <c r="F1" t="s" s="1">
+        <v>370</v>
+      </c>
+      <c r="G1" t="s" s="1">
+        <v>134</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>432</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>135</v>
+      </c>
+      <c r="J1" t="s" s="1">
         <v>414</v>
       </c>
-      <c t="s" s="1" r="B1">
-        <v>253</v>
-      </c>
-      <c t="s" s="1" r="C1">
-        <v>420</v>
-      </c>
-      <c t="s" s="1" r="D1">
-        <v>320</v>
-      </c>
-      <c t="s" s="1" r="E1">
-        <v>137</v>
-      </c>
-      <c t="s" s="1" r="F1">
-        <v>344</v>
-      </c>
-      <c t="s" s="1" r="G1">
-        <v>126</v>
-      </c>
-      <c t="s" s="1" r="H1">
-        <v>402</v>
-      </c>
-      <c t="s" s="1" r="I1">
-        <v>127</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" bottom="1" right="0.75" top="1" footer="0.5" left="0.75"/>
+  <pageMargins header="0.5" right="0.75" left="0.75" bottom="1" footer="0.5" top="1"/>
 </worksheet>
 </file>
 
@@ -1923,917 +2280,917 @@
   <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <sheetData>
     <row r="2" spans="1:1">
-      <c t="s" r="A2">
-        <v>17</v>
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c t="s" r="A3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c t="s" r="A4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c t="s" r="A5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c t="s" r="A6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c t="s" r="A7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c t="s" r="A8">
-        <v>20</v>
-      </c>
-    </row>
     <row r="9" spans="1:1">
-      <c t="s" r="A9">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c t="s" r="A10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c t="s" r="A11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c t="s" r="A12">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c t="s" r="A13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c t="s" r="A14">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c t="s" r="A15">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c t="s" r="A16">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c t="s" r="A17">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c t="s" r="A18">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c t="s" r="A19">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c t="s" r="A20">
-        <v>30</v>
-      </c>
-    </row>
     <row r="21" spans="1:1">
-      <c t="s" r="A21">
-        <v>36</v>
+      <c r="A21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c t="s" r="A22">
-        <v>37</v>
+      <c r="A22" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c t="s" r="A23">
-        <v>38</v>
+      <c r="A23" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c t="s" r="A24">
-        <v>39</v>
+      <c r="A24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c t="s" r="A25">
-        <v>40</v>
+      <c r="A25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c t="s" r="A26">
-        <v>41</v>
+      <c r="A26" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c t="s" r="A27">
-        <v>42</v>
+      <c r="A27" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c t="s" r="A28">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c t="s" r="A29">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c t="s" r="A30">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c t="s" r="A31">
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c t="s" r="A32">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c t="s" r="A33">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c t="s" r="A34">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c t="s" r="A35">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c t="s" r="A36">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c t="s" r="A37">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c t="s" r="A38">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c t="s" r="A39">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c t="s" r="A40">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c t="s" r="A41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c t="s" r="A42">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c t="s" r="A43">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c t="s" r="A44">
-        <v>52</v>
-      </c>
-    </row>
     <row r="45" spans="1:1">
-      <c t="s" r="A45">
-        <v>60</v>
+      <c r="A45" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c t="s" r="A46">
-        <v>61</v>
+      <c r="A46" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c t="s" r="A47">
-        <v>62</v>
+      <c r="A47" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c t="s" r="A48">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c t="s" r="A49">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c t="s" r="A50">
-        <v>64</v>
-      </c>
-    </row>
     <row r="51" spans="1:1">
-      <c t="s" r="A51">
-        <v>65</v>
+      <c r="A51" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c t="s" r="A52">
-        <v>66</v>
+      <c r="A52" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c t="s" r="A53">
-        <v>68</v>
+      <c r="A53" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c t="s" r="A54">
-        <v>88</v>
+      <c r="A54" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c t="s" r="A55">
-        <v>89</v>
+      <c r="A55" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c t="s" r="A56">
-        <v>90</v>
+      <c r="A56" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c t="s" r="A57">
-        <v>91</v>
+      <c r="A57" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c t="s" r="A58">
-        <v>92</v>
+      <c r="A58" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c t="s" r="A59">
-        <v>115</v>
+      <c r="A59" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c t="s" r="A60">
-        <v>116</v>
+      <c r="A60" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c t="s" r="A61">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c t="s" r="A62">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c t="s" r="A63">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c t="s" r="A64">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c t="s" r="A65">
-        <v>119</v>
-      </c>
-    </row>
     <row r="66" spans="1:1">
-      <c t="s" r="A66">
-        <v>122</v>
+      <c r="A66" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c t="s" r="A67">
-        <v>123</v>
+      <c r="A67" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c t="s" r="A68">
-        <v>124</v>
+      <c r="A68" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c t="s" r="A69">
-        <v>125</v>
+      <c r="A69" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c t="s" r="A70">
-        <v>128</v>
+      <c r="A70" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c t="s" r="A71">
-        <v>129</v>
+      <c r="A71" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c t="s" r="A72">
-        <v>136</v>
+      <c r="A72" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c t="s" r="A73">
-        <v>148</v>
+      <c r="A73" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c t="s" r="A74">
-        <v>147</v>
+      <c r="A74" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c t="s" r="A75">
-        <v>149</v>
+      <c r="A75" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c t="s" r="A76">
-        <v>153</v>
+      <c r="A76" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c t="s" r="A77">
-        <v>154</v>
+      <c r="A77" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c t="s" r="A78">
-        <v>150</v>
+      <c r="A78" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c t="s" r="A79">
-        <v>151</v>
+      <c r="A79" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c t="s" r="A80">
-        <v>152</v>
+      <c r="A80" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c t="s" r="A81">
-        <v>162</v>
+      <c r="A81" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c t="s" r="A82">
-        <v>164</v>
+      <c r="A82" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c t="s" r="A83">
-        <v>184</v>
+      <c r="A83" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c t="s" r="A84">
-        <v>185</v>
+      <c r="A84" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c t="s" r="A85">
-        <v>186</v>
+      <c r="A85" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c t="s" r="A86">
-        <v>187</v>
+      <c r="A86" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c t="s" r="A87">
-        <v>188</v>
+      <c r="A87" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c t="s" r="A88">
-        <v>189</v>
+      <c r="A88" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c t="s" r="A89">
-        <v>208</v>
+      <c r="A89" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c t="s" r="A90">
-        <v>209</v>
+      <c r="A90" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c t="s" r="A91">
-        <v>210</v>
+      <c r="A91" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c t="s" r="A92">
-        <v>211</v>
+      <c r="A92" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c t="s" r="A93">
-        <v>212</v>
+      <c r="A93" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c t="s" r="A94">
-        <v>213</v>
+      <c r="A94" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c t="s" r="A95">
-        <v>215</v>
+      <c r="A95" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c t="s" r="A96">
-        <v>216</v>
+      <c r="A96" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c t="s" r="A97">
-        <v>217</v>
+      <c r="A97" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c t="s" r="A98">
-        <v>218</v>
+      <c r="A98" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c t="s" r="A99">
-        <v>219</v>
+      <c r="A99" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c t="s" r="A100">
-        <v>214</v>
+      <c r="A100" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c t="s" r="A101">
-        <v>220</v>
+      <c r="A101" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c t="s" r="A102">
-        <v>221</v>
+      <c r="A102" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c t="s" r="A103">
-        <v>222</v>
+      <c r="A103" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c t="s" r="A104">
-        <v>223</v>
+      <c r="A104" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c t="s" r="A105">
-        <v>224</v>
+      <c r="A105" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c t="s" r="A106">
-        <v>239</v>
+      <c r="A106" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c t="s" r="A107">
-        <v>240</v>
+      <c r="A107" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c t="s" r="A108">
-        <v>241</v>
+      <c r="A108" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c t="s" r="A109">
+      <c r="A109" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c t="s" r="A110">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c t="s" r="A111">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c t="s" r="A112">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c t="s" r="A113">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c t="s" r="A114">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c t="s" r="A115">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c t="s" r="A116">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c t="s" r="A117">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c t="s" r="A118">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c t="s" r="A119">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c t="s" r="A120">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c t="s" r="A121">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c t="s" r="A122">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c t="s" r="A123">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c t="s" r="A124">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c t="s" r="A125">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c t="s" r="A126">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c t="s" r="A127">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c t="s" r="A128">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c t="s" r="A129">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c t="s" r="A130">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c t="s" r="A131">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c t="s" r="A132">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c t="s" r="A133">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c t="s" r="A134">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c t="s" r="A135">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c t="s" r="A136">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c t="s" r="A137">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c t="s" r="A138">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c t="s" r="A139">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c t="s" r="A140">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c t="s" r="A141">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c t="s" r="A142">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c t="s" r="A143">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c t="s" r="A144">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c t="s" r="A145">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c t="s" r="A146">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c t="s" r="A147">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c t="s" r="A148">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c t="s" r="A149">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c t="s" r="A150">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c t="s" r="A151">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c t="s" r="A152">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c t="s" r="A153">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c t="s" r="A154">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c t="s" r="A155">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c t="s" r="A156">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c t="s" r="A157">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c t="s" r="A158">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c t="s" r="A159">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c t="s" r="A160">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c t="s" r="A161">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c t="s" r="A162">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c t="s" r="A163">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c t="s" r="A164">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c t="s" r="A165">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c t="s" r="A166">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c t="s" r="A167">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c t="s" r="A168">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c t="s" r="A169">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c t="s" r="A170">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c t="s" r="A171">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c t="s" r="A172">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c t="s" r="A173">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c t="s" r="A174">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c t="s" r="A175">
-        <v>425</v>
-      </c>
-    </row>
     <row r="176" spans="1:1">
-      <c t="s" r="A176">
-        <v>426</v>
+      <c r="A176" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c t="s" r="A177">
-        <v>427</v>
+      <c r="A177" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c t="s" r="A178">
-        <v>437</v>
+      <c r="A178" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c t="s" r="A179">
-        <v>440</v>
+      <c r="A179" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c t="s" r="A180">
-        <v>438</v>
+      <c r="A180" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c t="s" r="A181">
-        <v>441</v>
+      <c r="A181" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c t="s" r="A182">
-        <v>439</v>
+      <c r="A182" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="183" spans="1:1">
-      <c t="s" r="A183">
-        <v>449</v>
+      <c r="A183" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" bottom="1" right="0.75" top="1" footer="0.5" left="0.75"/>
+  <pageMargins header="0.5" right="0.75" left="0.75" bottom="1" footer="0.5" top="1"/>
 </worksheet>
 </file>
 
@@ -2842,7 +3199,7 @@
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:A253"/>
+  <dimension ref="A1:A257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2851,1271 +3208,1291 @@
   <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c t="s" r="A2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c t="s" r="A3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c t="s" r="A4">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c t="s" r="A5">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c t="s" r="A6">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c t="s" r="A7">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c t="s" r="A8">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c t="s" r="A9">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c t="s" r="A10">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c t="s" r="A11">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c t="s" r="A12">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c t="s" r="A13">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c t="s" r="A14">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c t="s" r="A15">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c t="s" r="A16">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c t="s" r="A17">
-        <v>69</v>
+      <c r="A17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c t="s" r="A18">
-        <v>70</v>
+      <c r="A18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c t="s" r="A19">
-        <v>71</v>
+      <c r="A19" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c t="s" r="A20">
-        <v>72</v>
+      <c r="A20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c t="s" r="A21">
-        <v>73</v>
+      <c r="A21" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c t="s" r="A22">
-        <v>74</v>
+      <c r="A22" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c t="s" r="A23">
-        <v>75</v>
+      <c r="A23" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c t="s" r="A24">
-        <v>76</v>
+      <c r="A24" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c t="s" r="A25">
-        <v>77</v>
+      <c r="A25" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c t="s" r="A26">
-        <v>78</v>
+      <c r="A26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c t="s" r="A27">
-        <v>79</v>
+      <c r="A27" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c t="s" r="A28">
-        <v>80</v>
+      <c r="A28" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c t="s" r="A29">
-        <v>81</v>
+      <c r="A29" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c t="s" r="A30">
-        <v>82</v>
+      <c r="A30" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c t="s" r="A31">
-        <v>83</v>
+      <c r="A31" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c t="s" r="A32">
-        <v>84</v>
+      <c r="A32" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c t="s" r="A33">
-        <v>85</v>
+      <c r="A33" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c t="s" r="A34">
-        <v>86</v>
+      <c r="A34" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c t="s" r="A35">
-        <v>87</v>
+      <c r="A35" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c t="s" r="A36">
-        <v>93</v>
+      <c r="A36" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c t="s" r="A37">
-        <v>94</v>
+      <c r="A37" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c t="s" r="A38">
-        <v>95</v>
+      <c r="A38" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c t="s" r="A39">
-        <v>96</v>
+      <c r="A39" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c t="s" r="A40">
-        <v>97</v>
+      <c r="A40" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c t="s" r="A41">
-        <v>98</v>
+      <c r="A41" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c t="s" r="A42">
-        <v>102</v>
+      <c r="A42" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c t="s" r="A43">
-        <v>103</v>
+      <c r="A43" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c t="s" r="A44">
-        <v>104</v>
+      <c r="A44" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c t="s" r="A45">
-        <v>105</v>
+      <c r="A45" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c t="s" r="A46">
-        <v>106</v>
+      <c r="A46" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c t="s" r="A47">
+      <c r="A47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c t="s" r="A48">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c t="s" r="A49">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c t="s" r="A50">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c t="s" r="A51">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c t="s" r="A52">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c t="s" r="A53">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c t="s" r="A54">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c t="s" r="A55">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c t="s" r="A56">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c t="s" r="A57">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c t="s" r="A58">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c t="s" r="A59">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c t="s" r="A60">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c t="s" r="A61">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c t="s" r="A62">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c t="s" r="A63">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c t="s" r="A64">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c t="s" r="A65">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c t="s" r="A66">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c t="s" r="A67">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c t="s" r="A68">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c t="s" r="A69">
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c t="s" r="A70">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c t="s" r="A71">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c t="s" r="A72">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c t="s" r="A73">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c t="s" r="A74">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c t="s" r="A75">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c t="s" r="A76">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c t="s" r="A77">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c t="s" r="A78">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c t="s" r="A79">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c t="s" r="A80">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c t="s" r="A81">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c t="s" r="A82">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c t="s" r="A83">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c t="s" r="A84">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c t="s" r="A85">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c t="s" r="A86">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c t="s" r="A87">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c t="s" r="A88">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c t="s" r="A89">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c t="s" r="A90">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c t="s" r="A91">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c t="s" r="A92">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c t="s" r="A93">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c t="s" r="A94">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c t="s" r="A95">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c t="s" r="A96">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c t="s" r="A97">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c t="s" r="A98">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c t="s" r="A99">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c t="s" r="A100">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c t="s" r="A101">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c t="s" r="A102">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c t="s" r="A103">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c t="s" r="A104">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c t="s" r="A105">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c t="s" r="A106">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c t="s" r="A107">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c t="s" r="A108">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c t="s" r="A109">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c t="s" r="A110">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c t="s" r="A111">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c t="s" r="A112">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c t="s" r="A113">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c t="s" r="A114">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c t="s" r="A115">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c t="s" r="A116">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c t="s" r="A117">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c t="s" r="A118">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c t="s" r="A119">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c t="s" r="A120">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c t="s" r="A121">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c t="s" r="A122">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c t="s" r="A123">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c t="s" r="A124">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c t="s" r="A125">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c t="s" r="A126">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c t="s" r="A127">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c t="s" r="A128">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c t="s" r="A129">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c t="s" r="A130">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c t="s" r="A131">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c t="s" r="A132">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c t="s" r="A133">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c t="s" r="A134">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c t="s" r="A135">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c t="s" r="A136">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c t="s" r="A137">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c t="s" r="A138">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c t="s" r="A139">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c t="s" r="A140">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c t="s" r="A141">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c t="s" r="A142">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c t="s" r="A143">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c t="s" r="A144">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c t="s" r="A145">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c t="s" r="A146">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c t="s" r="A147">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c t="s" r="A148">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c t="s" r="A149">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c t="s" r="A150">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c t="s" r="A151">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c t="s" r="A152">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c t="s" r="A153">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c t="s" r="A154">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c t="s" r="A155">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c t="s" r="A156">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c t="s" r="A157">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c t="s" r="A158">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c t="s" r="A159">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c t="s" r="A160">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c t="s" r="A161">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c t="s" r="A162">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c t="s" r="A163">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c t="s" r="A164">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c t="s" r="A165">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c t="s" r="A166">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c t="s" r="A167">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c t="s" r="A168">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c t="s" r="A169">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c t="s" r="A170">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c t="s" r="A171">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c t="s" r="A172">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c t="s" r="A173">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c t="s" r="A174">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c t="s" r="A175">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c t="s" r="A176">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c t="s" r="A177">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c t="s" r="A178">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c t="s" r="A179">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c t="s" r="A180">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c t="s" r="A181">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c t="s" r="A182">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c t="s" r="A183">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c t="s" r="A184">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c t="s" r="A185">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c t="s" r="A186">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c t="s" r="A187">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c t="s" r="A188">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c t="s" r="A189">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c t="s" r="A190">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c t="s" r="A191">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c t="s" r="A192">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c t="s" r="A193">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c t="s" r="A194">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c t="s" r="A195">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c t="s" r="A196">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c t="s" r="A197">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c t="s" r="A198">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c t="s" r="A199">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c t="s" r="A200">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c t="s" r="A201">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c t="s" r="A202">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c t="s" r="A203">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c t="s" r="A204">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c t="s" r="A205">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c t="s" r="A206">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c t="s" r="A207">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c t="s" r="A208">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c t="s" r="A209">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c t="s" r="A210">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c t="s" r="A211">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c t="s" r="A212">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c t="s" r="A213">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c t="s" r="A214">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c t="s" r="A215">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c t="s" r="A216">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c t="s" r="A217">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c t="s" r="A218">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c t="s" r="A219">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c t="s" r="A220">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c t="s" r="A221">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c t="s" r="A222">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c t="s" r="A223">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c t="s" r="A224">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c t="s" r="A225">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c t="s" r="A226">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c t="s" r="A227">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c t="s" r="A228">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c t="s" r="A229">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c t="s" r="A230">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c t="s" r="A231">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c t="s" r="A232">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c t="s" r="A233">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c t="s" r="A234">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c t="s" r="A235">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c t="s" r="A236">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c t="s" r="A237">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c t="s" r="A238">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c t="s" r="A239">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c t="s" r="A240">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c t="s" r="A241">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c t="s" r="A242">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c t="s" r="A243">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c t="s" r="A244">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c t="s" r="A245">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c t="s" r="A246">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c t="s" r="A247">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c t="s" r="A248">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c t="s" r="A249">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c t="s" r="A250">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c t="s" r="A251">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c t="s" r="A252">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c t="s" r="A253">
-        <v>146</v>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" bottom="1" right="0.75" top="1" footer="0.5" left="0.75"/>
+  <pageMargins header="0.5" right="0.75" left="0.75" bottom="1" footer="0.5" top="1"/>
 </worksheet>
 </file>